--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_0_35.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_0_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3236333.816861961</v>
+        <v>3223596.525935051</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>490531.9281353125</v>
+        <v>365068.1634287684</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3036332.523171563</v>
+        <v>3036332.523171572</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7041499.362020457</v>
+        <v>7041499.362020455</v>
       </c>
     </row>
     <row r="11">
@@ -673,10 +673,10 @@
         <v>10.00967878293136</v>
       </c>
       <c r="G2" t="n">
-        <v>247.9473866308369</v>
+        <v>311.5471358005652</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
         <v>171.0890268032919</v>
@@ -709,22 +709,22 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
         <v>389.6064368699203</v>
@@ -758,7 +758,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>186.7982527956746</v>
+        <v>10.09209246479641</v>
       </c>
       <c r="U3" t="n">
         <v>216.3098444776729</v>
@@ -800,13 +800,13 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y3" t="n">
-        <v>125.9077741622184</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="4">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181.719814997536</v>
+        <v>156.6011627972193</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -834,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>187.2399190274182</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -901,13 +901,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>369.0957251250487</v>
+        <v>351.3543355814902</v>
       </c>
       <c r="E5" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>10.00967878293136</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G5" t="n">
         <v>411.9429466803539</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>43.67850358952838</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
         <v>252.3364829231459</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C6" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
-        <v>137.45025063969</v>
+        <v>20.6787256479067</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>49.56575960250095</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>151.2714921173871</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>177.0990279530006</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>23.62900810605255</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="8">
@@ -1135,16 +1135,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>107.1700212013865</v>
       </c>
       <c r="D8" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>10.00967878293136</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G8" t="n">
         <v>11.94294668035388</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>63.66199823758275</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
         <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>119.3175477853514</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>118.1202051047698</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>125.2040305762914</v>
+        <v>7.472969488175976</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1308,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,25 +1372,25 @@
         <v>284.422184297658</v>
       </c>
       <c r="C11" t="n">
-        <v>272.4335012553398</v>
+        <v>125.7108537877152</v>
       </c>
       <c r="D11" t="n">
         <v>263.4148052998677</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>285.1569428697733</v>
       </c>
       <c r="F11" t="n">
         <v>304.3287589577504</v>
       </c>
       <c r="G11" t="n">
-        <v>76.32326401043156</v>
+        <v>305.880075781887</v>
       </c>
       <c r="H11" t="n">
         <v>219.9004854041928</v>
       </c>
       <c r="I11" t="n">
-        <v>50.6829382252531</v>
+        <v>50.68293822525306</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.97205570826428</v>
+        <v>70.97205570826425</v>
       </c>
       <c r="T11" t="n">
-        <v>114.7624461578086</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>253.228661015794</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>272.5289192485407</v>
@@ -1469,7 +1469,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I12" t="n">
-        <v>60.66232013214973</v>
+        <v>60.66232013214972</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>46.49806561112343</v>
+        <v>46.49806561112456</v>
       </c>
       <c r="S12" t="n">
-        <v>147.4755605575067</v>
+        <v>147.4755605575066</v>
       </c>
       <c r="T12" t="n">
         <v>185.9745311655613</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>76.03889517235511</v>
+        <v>76.0388951723551</v>
       </c>
       <c r="C13" t="n">
-        <v>62.23889001775559</v>
+        <v>62.23889001775558</v>
       </c>
       <c r="D13" t="n">
-        <v>45.86025441533398</v>
+        <v>45.86025441533397</v>
       </c>
       <c r="E13" t="n">
-        <v>44.80800427111343</v>
+        <v>44.80800427111342</v>
       </c>
       <c r="F13" t="n">
-        <v>45.27492859929974</v>
+        <v>45.2749285992999</v>
       </c>
       <c r="G13" t="n">
-        <v>61.3783012183061</v>
+        <v>61.37830121830678</v>
       </c>
       <c r="H13" t="n">
-        <v>50.57471857888994</v>
+        <v>50.57471857888993</v>
       </c>
       <c r="I13" t="n">
-        <v>31.92773068686453</v>
+        <v>31.9277306868645</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.64201932678909</v>
+        <v>34.64201932678906</v>
       </c>
       <c r="S13" t="n">
         <v>102.905928725284</v>
@@ -1612,7 +1612,7 @@
         <v>272.4335012553398</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>263.4148052998677</v>
       </c>
       <c r="E14" t="n">
         <v>285.1569428697733</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>50.6829382252531</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.97205570826428</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>114.7624461578086</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>46.55305030688146</v>
+        <v>19.55568509834069</v>
       </c>
       <c r="V14" t="n">
         <v>227.9285615378371</v>
@@ -1706,7 +1706,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I15" t="n">
-        <v>60.66232013214973</v>
+        <v>60.66232013214972</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>46.49806561112343</v>
+        <v>46.49806561112341</v>
       </c>
       <c r="S15" t="n">
-        <v>147.4755605575067</v>
+        <v>147.4755605575066</v>
       </c>
       <c r="T15" t="n">
         <v>185.9745311655613</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>76.03889517235511</v>
+        <v>76.0388951723551</v>
       </c>
       <c r="C16" t="n">
-        <v>62.23889001775559</v>
+        <v>62.23889001775558</v>
       </c>
       <c r="D16" t="n">
-        <v>45.86025441533398</v>
+        <v>45.86025441533397</v>
       </c>
       <c r="E16" t="n">
-        <v>44.80800427111343</v>
+        <v>44.80800427111342</v>
       </c>
       <c r="F16" t="n">
-        <v>45.27492859929974</v>
+        <v>45.27492859929973</v>
       </c>
       <c r="G16" t="n">
-        <v>61.3783012183068</v>
+        <v>61.37830121830677</v>
       </c>
       <c r="H16" t="n">
-        <v>50.57471857888994</v>
+        <v>50.57471857888993</v>
       </c>
       <c r="I16" t="n">
-        <v>31.92773068686454</v>
+        <v>31.9277306868645</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.64201932678916</v>
+        <v>34.64201932678906</v>
       </c>
       <c r="S16" t="n">
         <v>102.905928725284</v>
@@ -1821,7 +1821,7 @@
         <v>124.4341970263864</v>
       </c>
       <c r="U16" t="n">
-        <v>178.6280720123002</v>
+        <v>178.6280720123005</v>
       </c>
       <c r="V16" t="n">
         <v>152.4470315719807</v>
@@ -1855,16 +1855,16 @@
         <v>285.1569428697733</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>304.3287589577504</v>
       </c>
       <c r="G17" t="n">
         <v>305.880075781887</v>
       </c>
       <c r="H17" t="n">
-        <v>135.4194019571532</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>50.6829382252531</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>70.97205570826428</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>114.7624461578086</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>146.6250070121021</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>253.228661015794</v>
+        <v>194.8328318700851</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>272.5289192485407</v>
       </c>
       <c r="Y17" t="n">
         <v>283.9255170447394</v>
@@ -1943,7 +1943,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I18" t="n">
-        <v>60.66232013214973</v>
+        <v>60.66232013214972</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>46.49806561112343</v>
+        <v>46.49806561112341</v>
       </c>
       <c r="S18" t="n">
-        <v>147.4755605575067</v>
+        <v>147.4755605575066</v>
       </c>
       <c r="T18" t="n">
         <v>185.9745311655613</v>
@@ -2016,13 +2016,13 @@
         <v>45.27492859929974</v>
       </c>
       <c r="G19" t="n">
-        <v>61.3783012183068</v>
+        <v>61.37830121830683</v>
       </c>
       <c r="H19" t="n">
         <v>50.57471857888994</v>
       </c>
       <c r="I19" t="n">
-        <v>31.92773068686453</v>
+        <v>31.92773068686451</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>34.64201932678909</v>
+        <v>34.64201932678908</v>
       </c>
       <c r="S19" t="n">
         <v>102.905928725284</v>
@@ -2058,7 +2058,7 @@
         <v>124.4341970263864</v>
       </c>
       <c r="U19" t="n">
-        <v>178.6280720123007</v>
+        <v>178.6280720123005</v>
       </c>
       <c r="V19" t="n">
         <v>152.4470315719807</v>
@@ -2086,22 +2086,22 @@
         <v>272.4335012553398</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>263.4148052998677</v>
       </c>
       <c r="E20" t="n">
         <v>285.1569428697733</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>304.3287589577504</v>
       </c>
       <c r="G20" t="n">
         <v>305.880075781887</v>
       </c>
       <c r="H20" t="n">
-        <v>219.9004854041928</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>50.68293822525309</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>70.97205570826426</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>77.16420426899832</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>146.6250070121021</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>227.9285615378371</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>253.228661015794</v>
+        <v>194.8328318700847</v>
       </c>
       <c r="X20" t="n">
         <v>272.5289192485407</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>283.9255170447394</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I21" t="n">
-        <v>60.66232013214973</v>
+        <v>60.66232013214974</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>76.0388951723551</v>
+        <v>76.03889517235511</v>
       </c>
       <c r="C22" t="n">
-        <v>62.23889001775558</v>
+        <v>62.23889001775559</v>
       </c>
       <c r="D22" t="n">
-        <v>45.86025441533397</v>
+        <v>45.86025441533398</v>
       </c>
       <c r="E22" t="n">
-        <v>44.80800427111342</v>
+        <v>44.80800427111343</v>
       </c>
       <c r="F22" t="n">
-        <v>45.27492859929973</v>
+        <v>45.27492859929974</v>
       </c>
       <c r="G22" t="n">
-        <v>61.37830121830677</v>
+        <v>61.3783012183068</v>
       </c>
       <c r="H22" t="n">
-        <v>50.57471857888993</v>
+        <v>50.57471857888994</v>
       </c>
       <c r="I22" t="n">
-        <v>31.92773068686452</v>
+        <v>31.92773068686453</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>34.64201932678908</v>
+        <v>34.64201932678909</v>
       </c>
       <c r="S22" t="n">
         <v>102.905928725284</v>
@@ -2295,7 +2295,7 @@
         <v>124.4341970263864</v>
       </c>
       <c r="U22" t="n">
-        <v>178.6280720123009</v>
+        <v>178.6280720123007</v>
       </c>
       <c r="V22" t="n">
         <v>152.4470315719807</v>
@@ -2323,13 +2323,13 @@
         <v>272.4335012553398</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>263.4148052998677</v>
       </c>
       <c r="E23" t="n">
-        <v>285.1569428697733</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>181.6642620856923</v>
+        <v>304.3287589577504</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2368,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>70.97205570826426</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>114.7624461578086</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>146.6250070121021</v>
       </c>
       <c r="V23" t="n">
         <v>227.9285615378371</v>
       </c>
       <c r="W23" t="n">
-        <v>253.228661015794</v>
+        <v>191.4157965676126</v>
       </c>
       <c r="X23" t="n">
         <v>272.5289192485407</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>76.0388951723551</v>
+        <v>76.03889517235511</v>
       </c>
       <c r="C25" t="n">
-        <v>62.23889001775558</v>
+        <v>62.23889001775559</v>
       </c>
       <c r="D25" t="n">
-        <v>45.86025441533397</v>
+        <v>45.86025441533398</v>
       </c>
       <c r="E25" t="n">
-        <v>44.80800427111342</v>
+        <v>44.80800427111343</v>
       </c>
       <c r="F25" t="n">
-        <v>45.27492859929973</v>
+        <v>45.27492859929974</v>
       </c>
       <c r="G25" t="n">
-        <v>61.37830121830678</v>
+        <v>61.3783012183068</v>
       </c>
       <c r="H25" t="n">
-        <v>50.57471857888993</v>
+        <v>50.57471857888994</v>
       </c>
       <c r="I25" t="n">
-        <v>31.92773068686451</v>
+        <v>31.92773068686453</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>34.64201932678908</v>
+        <v>34.64201932678909</v>
       </c>
       <c r="S25" t="n">
         <v>102.905928725284</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>284.4221842976581</v>
+        <v>284.422184297658</v>
       </c>
       <c r="C26" t="n">
         <v>272.4335012553398</v>
       </c>
       <c r="D26" t="n">
-        <v>95.68467170799791</v>
+        <v>263.4148052998677</v>
       </c>
       <c r="E26" t="n">
         <v>285.1569428697733</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>304.3287589577504</v>
       </c>
       <c r="G26" t="n">
         <v>305.880075781887</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>219.9004854041928</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.97205570826429</v>
+        <v>16.77066857346709</v>
       </c>
       <c r="T26" t="n">
         <v>114.7624461578086</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>146.6250070121021</v>
       </c>
       <c r="V26" t="n">
-        <v>227.9285615378372</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>253.2286610157941</v>
+        <v>253.228661015794</v>
       </c>
       <c r="X26" t="n">
-        <v>272.5289192485407</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>283.9255170447394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>76.03889517235513</v>
+        <v>76.03889517235511</v>
       </c>
       <c r="C28" t="n">
-        <v>62.23889001775561</v>
+        <v>62.23889001775487</v>
       </c>
       <c r="D28" t="n">
-        <v>45.860254415334</v>
+        <v>45.86025441533398</v>
       </c>
       <c r="E28" t="n">
-        <v>44.80800427111345</v>
+        <v>44.80800427111343</v>
       </c>
       <c r="F28" t="n">
-        <v>45.27492859929976</v>
+        <v>45.27492859929974</v>
       </c>
       <c r="G28" t="n">
-        <v>61.37830121830681</v>
+        <v>61.3783012183068</v>
       </c>
       <c r="H28" t="n">
-        <v>50.57471857888996</v>
+        <v>50.57471857888994</v>
       </c>
       <c r="I28" t="n">
-        <v>31.92773068686454</v>
+        <v>31.92773068686453</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.6420193267891</v>
+        <v>34.64201932678909</v>
       </c>
       <c r="S28" t="n">
         <v>102.905928725284</v>
@@ -2769,13 +2769,13 @@
         <v>124.4341970263864</v>
       </c>
       <c r="U28" t="n">
-        <v>178.6280720123002</v>
+        <v>178.6280720123007</v>
       </c>
       <c r="V28" t="n">
         <v>152.4470315719807</v>
       </c>
       <c r="W28" t="n">
-        <v>177.613917642594</v>
+        <v>177.6139176425939</v>
       </c>
       <c r="X28" t="n">
         <v>123.2590196383971</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>55.61261864227877</v>
+        <v>284.422184297658</v>
       </c>
       <c r="C29" t="n">
-        <v>272.4335012553397</v>
+        <v>272.4335012553398</v>
       </c>
       <c r="D29" t="n">
         <v>263.4148052998677</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>285.1569428697733</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>304.3287589577504</v>
       </c>
       <c r="G29" t="n">
-        <v>305.8800757818869</v>
+        <v>305.880075781887</v>
       </c>
       <c r="H29" t="n">
-        <v>219.9004854041928</v>
+        <v>194.8328318700847</v>
       </c>
       <c r="I29" t="n">
-        <v>50.68293822525305</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,19 +2845,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>114.7624461578086</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>146.6250070121021</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>227.9285615378371</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>253.228661015794</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>272.5289192485406</v>
+        <v>272.5289192485407</v>
       </c>
       <c r="Y29" t="n">
         <v>283.9255170447394</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>76.03889517235505</v>
+        <v>76.03889517235511</v>
       </c>
       <c r="C31" t="n">
-        <v>62.23889001775554</v>
+        <v>62.23889001775559</v>
       </c>
       <c r="D31" t="n">
-        <v>45.86025441533393</v>
+        <v>45.86025441533398</v>
       </c>
       <c r="E31" t="n">
-        <v>44.80800427111338</v>
+        <v>44.80800427111343</v>
       </c>
       <c r="F31" t="n">
-        <v>45.27492859929968</v>
+        <v>45.27492859929974</v>
       </c>
       <c r="G31" t="n">
-        <v>61.37830121830674</v>
+        <v>61.3783012183068</v>
       </c>
       <c r="H31" t="n">
-        <v>50.57471857888989</v>
+        <v>50.57471857888994</v>
       </c>
       <c r="I31" t="n">
-        <v>31.92773068686447</v>
+        <v>31.92773068686453</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.64201932678903</v>
+        <v>34.64201932678909</v>
       </c>
       <c r="S31" t="n">
-        <v>102.905928725284</v>
+        <v>102.9059287252842</v>
       </c>
       <c r="T31" t="n">
         <v>124.4341970263864</v>
       </c>
       <c r="U31" t="n">
-        <v>178.6280720123011</v>
+        <v>178.6280720123</v>
       </c>
       <c r="V31" t="n">
-        <v>152.4470315719806</v>
+        <v>152.4470315719807</v>
       </c>
       <c r="W31" t="n">
         <v>177.6139176425939</v>
       </c>
       <c r="X31" t="n">
-        <v>123.259019638397</v>
+        <v>123.2590196383971</v>
       </c>
       <c r="Y31" t="n">
-        <v>114.1338873944647</v>
+        <v>114.1338873944648</v>
       </c>
     </row>
     <row r="32">
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>281.847551573431</v>
+        <v>281.8475515734316</v>
       </c>
       <c r="C32" t="n">
-        <v>269.8588685311128</v>
+        <v>269.8588685311133</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>260.8401725756413</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>282.5823101455468</v>
       </c>
       <c r="F32" t="n">
-        <v>301.7541262335234</v>
+        <v>301.754126233524</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>303.3054430576606</v>
       </c>
       <c r="H32" t="n">
-        <v>217.3258526799658</v>
+        <v>217.3258526799664</v>
       </c>
       <c r="I32" t="n">
-        <v>48.1083055010261</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>68.39742298403728</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>112.1878134335816</v>
+        <v>112.1878134335822</v>
       </c>
       <c r="U32" t="n">
-        <v>144.0503742878751</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>225.3539288136101</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>250.654028291567</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>269.9542865243137</v>
+        <v>155.8705140746618</v>
       </c>
       <c r="Y32" t="n">
-        <v>277.4309777715965</v>
+        <v>281.350884320513</v>
       </c>
     </row>
     <row r="33">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.46426244812811</v>
+        <v>73.46426244812866</v>
       </c>
       <c r="C34" t="n">
-        <v>59.66425729352859</v>
+        <v>59.66425729352915</v>
       </c>
       <c r="D34" t="n">
-        <v>43.28562169110698</v>
+        <v>43.28562169110754</v>
       </c>
       <c r="E34" t="n">
-        <v>42.23337154688643</v>
+        <v>42.23337154688699</v>
       </c>
       <c r="F34" t="n">
-        <v>42.70029587507274</v>
+        <v>42.70029587507329</v>
       </c>
       <c r="G34" t="n">
-        <v>58.80366849407979</v>
+        <v>58.80366849408035</v>
       </c>
       <c r="H34" t="n">
-        <v>48.00008585466294</v>
+        <v>48.0000858546635</v>
       </c>
       <c r="I34" t="n">
-        <v>29.35309796263753</v>
+        <v>29.35309796263808</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>32.06738660256209</v>
+        <v>32.06738660256264</v>
       </c>
       <c r="S34" t="n">
-        <v>100.331296001057</v>
+        <v>100.3312960010576</v>
       </c>
       <c r="T34" t="n">
-        <v>121.8595643021594</v>
+        <v>121.85956430216</v>
       </c>
       <c r="U34" t="n">
-        <v>176.0534392880737</v>
+        <v>176.0534392880743</v>
       </c>
       <c r="V34" t="n">
-        <v>149.8723988477537</v>
+        <v>149.8723988477543</v>
       </c>
       <c r="W34" t="n">
-        <v>175.0392849183669</v>
+        <v>175.0392849183675</v>
       </c>
       <c r="X34" t="n">
-        <v>120.6843869141701</v>
+        <v>120.6843869141706</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.5592546702378</v>
+        <v>111.5592546702383</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>281.847551573431</v>
+        <v>281.8475515734316</v>
       </c>
       <c r="C35" t="n">
-        <v>269.8588685311128</v>
+        <v>269.8588685311133</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>260.8401725756413</v>
       </c>
       <c r="E35" t="n">
-        <v>213.4059461310498</v>
+        <v>282.5823101455468</v>
       </c>
       <c r="F35" t="n">
-        <v>301.7541262335235</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>152.3228260610002</v>
       </c>
       <c r="I35" t="n">
-        <v>48.10830550102612</v>
+        <v>48.10830550102666</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>68.39742298403729</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>112.1878134335816</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>144.0503742878751</v>
+        <v>144.0503742878757</v>
       </c>
       <c r="V35" t="n">
-        <v>225.3539288136102</v>
+        <v>225.3539288136107</v>
       </c>
       <c r="W35" t="n">
-        <v>250.6540282915671</v>
+        <v>250.6540282915676</v>
       </c>
       <c r="X35" t="n">
-        <v>269.9542865243137</v>
+        <v>269.9542865243142</v>
       </c>
       <c r="Y35" t="n">
-        <v>281.3508843205125</v>
+        <v>281.350884320513</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>73.46426244812812</v>
+        <v>73.46426244812866</v>
       </c>
       <c r="C37" t="n">
-        <v>59.66425729352861</v>
+        <v>59.66425729352915</v>
       </c>
       <c r="D37" t="n">
-        <v>43.285621691107</v>
+        <v>43.28562169110754</v>
       </c>
       <c r="E37" t="n">
-        <v>42.23337154688645</v>
+        <v>42.23337154688699</v>
       </c>
       <c r="F37" t="n">
-        <v>42.70029587507275</v>
+        <v>42.70029587507329</v>
       </c>
       <c r="G37" t="n">
-        <v>58.80366849407981</v>
+        <v>58.80366849408035</v>
       </c>
       <c r="H37" t="n">
-        <v>48.00008585466296</v>
+        <v>48.0000858546635</v>
       </c>
       <c r="I37" t="n">
-        <v>29.35309796263754</v>
+        <v>29.35309796263808</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>32.0673866025621</v>
+        <v>32.06738660256264</v>
       </c>
       <c r="S37" t="n">
-        <v>100.331296001057</v>
+        <v>100.3312960010576</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8595643021594</v>
+        <v>121.85956430216</v>
       </c>
       <c r="U37" t="n">
-        <v>176.0534392880737</v>
+        <v>176.0534392880743</v>
       </c>
       <c r="V37" t="n">
-        <v>149.8723988477537</v>
+        <v>149.8723988477543</v>
       </c>
       <c r="W37" t="n">
-        <v>175.039284918367</v>
+        <v>175.0392849183675</v>
       </c>
       <c r="X37" t="n">
-        <v>120.6843869141701</v>
+        <v>120.6843869141706</v>
       </c>
       <c r="Y37" t="n">
-        <v>111.5592546702378</v>
+        <v>111.5592546702383</v>
       </c>
     </row>
     <row r="38">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>281.847551573431</v>
+        <v>281.8475515734316</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>269.8588685311133</v>
       </c>
       <c r="D38" t="n">
-        <v>260.8401725756407</v>
+        <v>260.8401725756413</v>
       </c>
       <c r="E38" t="n">
-        <v>282.5823101455463</v>
+        <v>282.5823101455468</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>301.754126233524</v>
       </c>
       <c r="G38" t="n">
-        <v>303.3054430576601</v>
+        <v>199.683885445951</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>54.79674360190245</v>
+        <v>68.39742298403783</v>
       </c>
       <c r="T38" t="n">
-        <v>112.1878134335816</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>144.0503742878751</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>225.3539288136102</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>250.6540282915671</v>
+        <v>250.6540282915676</v>
       </c>
       <c r="X38" t="n">
-        <v>269.9542865243137</v>
+        <v>269.9542865243142</v>
       </c>
       <c r="Y38" t="n">
-        <v>281.3508843205125</v>
+        <v>281.350884320513</v>
       </c>
     </row>
     <row r="39">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>73.46426244812812</v>
+        <v>73.46426244812866</v>
       </c>
       <c r="C40" t="n">
-        <v>59.66425729352861</v>
+        <v>59.66425729352915</v>
       </c>
       <c r="D40" t="n">
-        <v>43.285621691107</v>
+        <v>43.28562169110754</v>
       </c>
       <c r="E40" t="n">
-        <v>42.23337154688645</v>
+        <v>42.23337154688699</v>
       </c>
       <c r="F40" t="n">
-        <v>42.70029587507275</v>
+        <v>42.70029587507329</v>
       </c>
       <c r="G40" t="n">
-        <v>58.80366849407981</v>
+        <v>58.80366849408035</v>
       </c>
       <c r="H40" t="n">
-        <v>48.00008585466296</v>
+        <v>48.0000858546635</v>
       </c>
       <c r="I40" t="n">
-        <v>29.35309796263754</v>
+        <v>29.35309796263808</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>32.0673866025621</v>
+        <v>32.06738660256264</v>
       </c>
       <c r="S40" t="n">
-        <v>100.331296001057</v>
+        <v>100.3312960010576</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8595643021594</v>
+        <v>121.85956430216</v>
       </c>
       <c r="U40" t="n">
-        <v>176.0534392880737</v>
+        <v>176.0534392880743</v>
       </c>
       <c r="V40" t="n">
-        <v>149.8723988477537</v>
+        <v>149.8723988477543</v>
       </c>
       <c r="W40" t="n">
-        <v>175.039284918367</v>
+        <v>175.0392849183675</v>
       </c>
       <c r="X40" t="n">
-        <v>120.6843869141701</v>
+        <v>120.6843869141706</v>
       </c>
       <c r="Y40" t="n">
-        <v>111.5592546702378</v>
+        <v>111.5592546702383</v>
       </c>
     </row>
     <row r="41">
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>387.5284713986125</v>
       </c>
       <c r="C41" t="n">
-        <v>375.5397883562937</v>
+        <v>375.5397883562943</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>388.2632299707272</v>
+        <v>388.2632299707278</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>407.4350460587049</v>
       </c>
       <c r="G41" t="n">
-        <v>408.9863628828409</v>
+        <v>408.9863628828415</v>
       </c>
       <c r="H41" t="n">
-        <v>323.0067725051467</v>
+        <v>323.0067725051473</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>153.7892253262076</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,22 +3787,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>63.16453680757742</v>
+        <v>22.37464012710508</v>
       </c>
       <c r="S41" t="n">
-        <v>174.0783428092182</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>46.51470653829718</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>331.0348486387911</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>356.334948116748</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>206.0122158262385</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>281.7343591132546</v>
+        <v>281.7343591132552</v>
       </c>
       <c r="V43" t="n">
-        <v>255.5533186729346</v>
+        <v>194.669820717987</v>
       </c>
       <c r="W43" t="n">
-        <v>145.128717871295</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>387.528471398612</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>178.3859111001774</v>
+        <v>375.5397883562943</v>
       </c>
       <c r="D44" t="n">
-        <v>366.5210924008217</v>
+        <v>366.5210924008222</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>407.4350460587044</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>408.986362882841</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.0067725051473</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>153.7892253262076</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>63.164536807578</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>331.0348486387911</v>
+        <v>65.90016261765372</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>356.3349481167485</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>375.6352063494951</v>
       </c>
       <c r="Y44" t="n">
-        <v>387.0318041456934</v>
+        <v>387.0318041456939</v>
       </c>
     </row>
     <row r="45">
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.4845883192613</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>153.6810056798444</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4179,10 +4179,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>21.23077545715771</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>137.748306427743</v>
+        <v>137.7483064277436</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>242.7171090290352</v>
+        <v>9.262320735212253</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>280.7202047435479</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>217.2401744954192</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>475.4041472295429</v>
+        <v>872.4675925107471</v>
       </c>
       <c r="C2" t="n">
-        <v>475.4041472295429</v>
+        <v>872.4675925107471</v>
       </c>
       <c r="D2" t="n">
-        <v>475.4041472295429</v>
+        <v>872.4675925107471</v>
       </c>
       <c r="E2" t="n">
-        <v>475.4041472295429</v>
+        <v>872.4675925107471</v>
       </c>
       <c r="F2" t="n">
-        <v>465.2933605801173</v>
+        <v>862.3568058613215</v>
       </c>
       <c r="G2" t="n">
-        <v>214.8414548924032</v>
+        <v>547.662729295094</v>
       </c>
       <c r="H2" t="n">
         <v>214.8414548924032</v>
       </c>
       <c r="I2" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J2" t="n">
-        <v>114.0228003740046</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K2" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L2" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M2" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N2" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O2" t="n">
         <v>1778.623654917371</v>
@@ -4357,25 +4357,25 @@
         <v>2010.574518555815</v>
       </c>
       <c r="S2" t="n">
-        <v>1823.345543186168</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T2" t="n">
-        <v>1823.345543186168</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="U2" t="n">
-        <v>1568.460206900163</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="V2" t="n">
-        <v>1231.480932796104</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="W2" t="n">
-        <v>868.9460026537049</v>
+        <v>1648.039588413416</v>
       </c>
       <c r="X2" t="n">
-        <v>868.9460026537049</v>
+        <v>1266.009447934909</v>
       </c>
       <c r="Y2" t="n">
-        <v>475.4041472295429</v>
+        <v>872.4675925107471</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>921.3370166032433</v>
+        <v>852.9547312933042</v>
       </c>
       <c r="C3" t="n">
-        <v>759.6333438441981</v>
+        <v>691.251058534259</v>
       </c>
       <c r="D3" t="n">
-        <v>620.7947068344101</v>
+        <v>552.412421524471</v>
       </c>
       <c r="E3" t="n">
-        <v>473.7666968912813</v>
+        <v>405.3844115813423</v>
       </c>
       <c r="F3" t="n">
-        <v>339.0728988411556</v>
+        <v>270.6906135312166</v>
       </c>
       <c r="G3" t="n">
-        <v>210.3443988644402</v>
+        <v>141.9621135545012</v>
       </c>
       <c r="H3" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I3" t="n">
         <v>42.02425610119923</v>
@@ -4415,46 +4415,46 @@
         <v>331.768955194494</v>
       </c>
       <c r="L3" t="n">
-        <v>331.768955194494</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M3" t="n">
-        <v>816.8023087047204</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N3" t="n">
-        <v>1249.145305214519</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O3" t="n">
-        <v>1641.34525599867</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P3" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q3" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R3" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S3" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T3" t="n">
-        <v>1852.743432320892</v>
+        <v>2091.018772267238</v>
       </c>
       <c r="U3" t="n">
-        <v>1634.248639919202</v>
+        <v>1872.523979865548</v>
       </c>
       <c r="V3" t="n">
-        <v>1405.853017367536</v>
+        <v>1644.128357313882</v>
       </c>
       <c r="W3" t="n">
-        <v>1405.853017367536</v>
+        <v>1402.812488547192</v>
       </c>
       <c r="X3" t="n">
-        <v>1207.936029245331</v>
+        <v>1204.895500424986</v>
       </c>
       <c r="Y3" t="n">
-        <v>1080.756459384504</v>
+        <v>1012.374174074565</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201.3969013219254</v>
+        <v>415.9005086226678</v>
       </c>
       <c r="C4" t="n">
-        <v>201.3969013219254</v>
+        <v>246.284539084348</v>
       </c>
       <c r="D4" t="n">
-        <v>201.3969013219254</v>
+        <v>246.284539084348</v>
       </c>
       <c r="E4" t="n">
-        <v>201.3969013219254</v>
+        <v>246.284539084348</v>
       </c>
       <c r="F4" t="n">
-        <v>201.3969013219254</v>
+        <v>246.284539084348</v>
       </c>
       <c r="G4" t="n">
-        <v>201.3969013219254</v>
+        <v>246.284539084348</v>
       </c>
       <c r="H4" t="n">
-        <v>42.02425610119923</v>
+        <v>246.284539084348</v>
       </c>
       <c r="I4" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="J4" t="n">
         <v>42.02425610119923</v>
@@ -4515,25 +4515,25 @@
         <v>574.0835013471317</v>
       </c>
       <c r="S4" t="n">
-        <v>384.9522700063052</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T4" t="n">
-        <v>384.9522700063052</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U4" t="n">
-        <v>384.9522700063052</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V4" t="n">
-        <v>384.9522700063052</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="W4" t="n">
-        <v>384.9522700063052</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="X4" t="n">
-        <v>384.9522700063052</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Y4" t="n">
-        <v>384.9522700063052</v>
+        <v>574.0835013471317</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1408.66591275431</v>
+        <v>1621.968522504967</v>
       </c>
       <c r="C5" t="n">
-        <v>1408.66591275431</v>
+        <v>1621.968522504967</v>
       </c>
       <c r="D5" t="n">
-        <v>1035.841947981534</v>
+        <v>1267.065153230734</v>
       </c>
       <c r="E5" t="n">
-        <v>641.0562280876408</v>
+        <v>872.2794333368408</v>
       </c>
       <c r="F5" t="n">
-        <v>630.9454414382152</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="G5" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H5" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I5" t="n">
         <v>42.02425610119923</v>
@@ -4597,22 +4597,22 @@
         <v>2101.212805059961</v>
       </c>
       <c r="T5" t="n">
-        <v>2057.093104464478</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="U5" t="n">
-        <v>1802.207768178472</v>
+        <v>1621.968522504967</v>
       </c>
       <c r="V5" t="n">
-        <v>1802.207768178472</v>
+        <v>1621.968522504967</v>
       </c>
       <c r="W5" t="n">
-        <v>1802.207768178472</v>
+        <v>1621.968522504967</v>
       </c>
       <c r="X5" t="n">
-        <v>1802.207768178472</v>
+        <v>1621.968522504967</v>
       </c>
       <c r="Y5" t="n">
-        <v>1408.66591275431</v>
+        <v>1621.968522504967</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>621.2993471409599</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C6" t="n">
-        <v>459.5956743819146</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D6" t="n">
-        <v>320.7570373721267</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="E6" t="n">
-        <v>320.7570373721267</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="F6" t="n">
-        <v>320.7570373721267</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G6" t="n">
-        <v>192.0285373954112</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H6" t="n">
-        <v>92.09067994210928</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I6" t="n">
         <v>42.02425610119923</v>
@@ -4661,37 +4661,37 @@
         <v>1693.889799997958</v>
       </c>
       <c r="O6" t="n">
-        <v>2086.089750782109</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="P6" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q6" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R6" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S6" t="n">
-        <v>1888.629049167647</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T6" t="n">
-        <v>1699.943945333632</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U6" t="n">
-        <v>1481.449152931943</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V6" t="n">
-        <v>1253.053530380276</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W6" t="n">
-        <v>1011.737661613587</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X6" t="n">
-        <v>813.8206734913811</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y6" t="n">
-        <v>621.2993471409599</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="7">
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>211.6402256395189</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C7" t="n">
         <v>42.02425610119923</v>
@@ -4752,25 +4752,25 @@
         <v>574.0835013471317</v>
       </c>
       <c r="S7" t="n">
-        <v>395.1955943238988</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T7" t="n">
-        <v>395.1955943238988</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U7" t="n">
-        <v>395.1955943238988</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V7" t="n">
-        <v>395.1955943238988</v>
+        <v>550.215816391523</v>
       </c>
       <c r="W7" t="n">
-        <v>395.1955943238988</v>
+        <v>264.0594149089221</v>
       </c>
       <c r="X7" t="n">
-        <v>395.1955943238988</v>
+        <v>264.0594149089221</v>
       </c>
       <c r="Y7" t="n">
-        <v>395.1955943238988</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>609.8397888200133</v>
+        <v>1344.101260631174</v>
       </c>
       <c r="C8" t="n">
-        <v>609.8397888200133</v>
+        <v>1235.848713963107</v>
       </c>
       <c r="D8" t="n">
-        <v>237.0158240472368</v>
+        <v>863.02474919033</v>
       </c>
       <c r="E8" t="n">
-        <v>237.0158240472368</v>
+        <v>468.2390292964369</v>
       </c>
       <c r="F8" t="n">
-        <v>226.9050373978112</v>
+        <v>54.08783860660719</v>
       </c>
       <c r="G8" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H8" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I8" t="n">
         <v>42.02425610119923</v>
@@ -4807,16 +4807,16 @@
         <v>114.0228003740049</v>
       </c>
       <c r="K8" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L8" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M8" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N8" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O8" t="n">
         <v>1778.623654917371</v>
@@ -4831,25 +4831,25 @@
         <v>2010.574518555815</v>
       </c>
       <c r="S8" t="n">
-        <v>1946.269469830984</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T8" t="n">
-        <v>1946.269469830984</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="U8" t="n">
-        <v>1691.384133544978</v>
+        <v>1344.101260631174</v>
       </c>
       <c r="V8" t="n">
-        <v>1354.404859440919</v>
+        <v>1344.101260631174</v>
       </c>
       <c r="W8" t="n">
-        <v>991.86992929852</v>
+        <v>1344.101260631174</v>
       </c>
       <c r="X8" t="n">
-        <v>609.8397888200133</v>
+        <v>1344.101260631174</v>
       </c>
       <c r="Y8" t="n">
-        <v>609.8397888200133</v>
+        <v>1344.101260631174</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>621.2993471409599</v>
+        <v>461.879904359699</v>
       </c>
       <c r="C9" t="n">
-        <v>459.5956743819146</v>
+        <v>300.1762316006536</v>
       </c>
       <c r="D9" t="n">
-        <v>459.5956743819146</v>
+        <v>161.3375945908657</v>
       </c>
       <c r="E9" t="n">
-        <v>339.0728988411556</v>
+        <v>161.3375945908657</v>
       </c>
       <c r="F9" t="n">
-        <v>339.0728988411556</v>
+        <v>161.3375945908657</v>
       </c>
       <c r="G9" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H9" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I9" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K9" t="n">
-        <v>331.768955194494</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L9" t="n">
-        <v>697.5908003646097</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M9" t="n">
-        <v>1182.624153874836</v>
+        <v>1122.37000734173</v>
       </c>
       <c r="N9" t="n">
-        <v>1693.889799997958</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O9" t="n">
-        <v>1693.889799997958</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P9" t="n">
-        <v>1995.985719273655</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q9" t="n">
         <v>2101.212805059961</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>168.4929738550289</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="C10" t="n">
-        <v>42.02425610119923</v>
+        <v>566.5350473186711</v>
       </c>
       <c r="D10" t="n">
-        <v>42.02425610119923</v>
+        <v>413.4631541464339</v>
       </c>
       <c r="E10" t="n">
-        <v>42.02425610119923</v>
+        <v>261.4541399077527</v>
       </c>
       <c r="F10" t="n">
-        <v>42.02425610119923</v>
+        <v>261.4541399077527</v>
       </c>
       <c r="G10" t="n">
-        <v>42.02425610119923</v>
+        <v>261.4541399077527</v>
       </c>
       <c r="H10" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="I10" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="J10" t="n">
         <v>42.02425610119923</v>
@@ -5007,7 +5007,7 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Y10" t="n">
-        <v>352.0483425394087</v>
+        <v>574.0835013471317</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1249.928415607392</v>
+        <v>1621.636604671639</v>
       </c>
       <c r="C11" t="n">
-        <v>974.7430608040183</v>
+        <v>1494.655944280007</v>
       </c>
       <c r="D11" t="n">
-        <v>708.667499895061</v>
+        <v>1228.58038337105</v>
       </c>
       <c r="E11" t="n">
-        <v>708.667499895061</v>
+        <v>940.5430673409757</v>
       </c>
       <c r="F11" t="n">
-        <v>401.2647130690505</v>
+        <v>633.1402805149651</v>
       </c>
       <c r="G11" t="n">
-        <v>324.1705069979075</v>
+        <v>324.1705069979074</v>
       </c>
       <c r="H11" t="n">
-        <v>102.0488045694299</v>
+        <v>102.0488045694298</v>
       </c>
       <c r="I11" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321464</v>
       </c>
       <c r="J11" t="n">
         <v>154.9459054532636</v>
       </c>
       <c r="K11" t="n">
-        <v>443.1860302481634</v>
+        <v>443.1860302481635</v>
       </c>
       <c r="L11" t="n">
-        <v>850.7433998907119</v>
+        <v>850.7433998907122</v>
       </c>
       <c r="M11" t="n">
-        <v>1310.379159876956</v>
+        <v>1310.379159876957</v>
       </c>
       <c r="N11" t="n">
-        <v>1756.181478599932</v>
+        <v>1756.181478599933</v>
       </c>
       <c r="O11" t="n">
-        <v>2124.896977382889</v>
+        <v>2124.89697738289</v>
       </c>
       <c r="P11" t="n">
-        <v>2407.429665198535</v>
+        <v>2407.429665198536</v>
       </c>
       <c r="Q11" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.695873660732</v>
       </c>
       <c r="R11" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.695873660732</v>
       </c>
       <c r="S11" t="n">
-        <v>2471.006928500868</v>
+        <v>2471.006928500869</v>
       </c>
       <c r="T11" t="n">
-        <v>2355.085265715202</v>
+        <v>2471.006928500869</v>
       </c>
       <c r="U11" t="n">
-        <v>2355.085265715202</v>
+        <v>2471.006928500869</v>
       </c>
       <c r="V11" t="n">
-        <v>2355.085265715202</v>
+        <v>2471.006928500869</v>
       </c>
       <c r="W11" t="n">
-        <v>2099.298739436622</v>
+        <v>2471.006928500869</v>
       </c>
       <c r="X11" t="n">
-        <v>1824.017002821935</v>
+        <v>2195.725191886182</v>
       </c>
       <c r="Y11" t="n">
-        <v>1537.223551261592</v>
+        <v>1908.931740325839</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>920.8593958421037</v>
+        <v>920.8593958421039</v>
       </c>
       <c r="C12" t="n">
-        <v>759.1557230830585</v>
+        <v>759.1557230830587</v>
       </c>
       <c r="D12" t="n">
         <v>620.3170860732707</v>
       </c>
       <c r="E12" t="n">
-        <v>473.2890761301419</v>
+        <v>473.289076130142</v>
       </c>
       <c r="F12" t="n">
-        <v>338.5952780800162</v>
+        <v>338.5952780800163</v>
       </c>
       <c r="G12" t="n">
         <v>210.0732042050868</v>
@@ -5117,31 +5117,31 @@
         <v>112.1289883137699</v>
       </c>
       <c r="I12" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321464</v>
       </c>
       <c r="J12" t="n">
-        <v>130.2226992162549</v>
+        <v>111.1080640063208</v>
       </c>
       <c r="K12" t="n">
-        <v>392.3832078845233</v>
+        <v>340.5986165665095</v>
       </c>
       <c r="L12" t="n">
-        <v>802.1338407649491</v>
+        <v>706.4204617366252</v>
       </c>
       <c r="M12" t="n">
-        <v>1338.430017546049</v>
+        <v>1242.716638517726</v>
       </c>
       <c r="N12" t="n">
-        <v>1578.032071547365</v>
+        <v>1806.601882306411</v>
       </c>
       <c r="O12" t="n">
-        <v>2018.368674122672</v>
+        <v>2246.938484881718</v>
       </c>
       <c r="P12" t="n">
-        <v>2359.098500262959</v>
+        <v>2384.924243875138</v>
       </c>
       <c r="Q12" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.695873660732</v>
       </c>
       <c r="R12" t="n">
         <v>2495.728130619192</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>396.3719253394402</v>
+        <v>396.371925339441</v>
       </c>
       <c r="C13" t="n">
-        <v>333.5043596649396</v>
+        <v>333.5043596649404</v>
       </c>
       <c r="D13" t="n">
-        <v>287.1808703565214</v>
+        <v>287.1808703565222</v>
       </c>
       <c r="E13" t="n">
-        <v>241.9202599816594</v>
+        <v>241.9202599816602</v>
       </c>
       <c r="F13" t="n">
-        <v>196.1880088712556</v>
+        <v>196.1880088712562</v>
       </c>
       <c r="G13" t="n">
-        <v>134.1897248123606</v>
+        <v>134.1897248123605</v>
       </c>
       <c r="H13" t="n">
-        <v>83.10415049024949</v>
+        <v>83.10415049024948</v>
       </c>
       <c r="I13" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321464</v>
       </c>
       <c r="J13" t="n">
-        <v>108.6078364153128</v>
+        <v>108.6078364153129</v>
       </c>
       <c r="K13" t="n">
-        <v>266.5425231581222</v>
+        <v>266.5425231581223</v>
       </c>
       <c r="L13" t="n">
-        <v>496.9911056284412</v>
+        <v>496.9911056284414</v>
       </c>
       <c r="M13" t="n">
-        <v>746.1969269749311</v>
+        <v>746.1969269749313</v>
       </c>
       <c r="N13" t="n">
-        <v>995.1993758657821</v>
+        <v>995.1993758657825</v>
       </c>
       <c r="O13" t="n">
-        <v>1222.261696869151</v>
+        <v>1222.261696869152</v>
       </c>
       <c r="P13" t="n">
-        <v>1410.368672358094</v>
+        <v>1410.368672358095</v>
       </c>
       <c r="Q13" t="n">
-        <v>1491.425428885452</v>
+        <v>1491.425428885453</v>
       </c>
       <c r="R13" t="n">
-        <v>1456.433490171524</v>
+        <v>1456.433490171525</v>
       </c>
       <c r="S13" t="n">
-        <v>1352.488107620732</v>
+        <v>1352.488107620733</v>
       </c>
       <c r="T13" t="n">
-        <v>1226.796999513271</v>
+        <v>1226.796999513272</v>
       </c>
       <c r="U13" t="n">
-        <v>1046.36460354125</v>
+        <v>1046.364603541251</v>
       </c>
       <c r="V13" t="n">
-        <v>892.3777029634917</v>
+        <v>892.3777029634924</v>
       </c>
       <c r="W13" t="n">
-        <v>712.96970534471</v>
+        <v>712.9697053447106</v>
       </c>
       <c r="X13" t="n">
-        <v>588.4656451039048</v>
+        <v>588.4656451039056</v>
       </c>
       <c r="Y13" t="n">
-        <v>473.1788901600009</v>
+        <v>473.1788901600017</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>972.674262228888</v>
+        <v>1187.55493604163</v>
       </c>
       <c r="C14" t="n">
-        <v>697.4889074255145</v>
+        <v>912.3695812382565</v>
       </c>
       <c r="D14" t="n">
-        <v>697.4889074255145</v>
+        <v>646.2940203292992</v>
       </c>
       <c r="E14" t="n">
-        <v>409.4515913954405</v>
+        <v>358.2567042992252</v>
       </c>
       <c r="F14" t="n">
-        <v>102.0488045694299</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="G14" t="n">
-        <v>102.0488045694299</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H14" t="n">
-        <v>102.0488045694299</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I14" t="n">
         <v>50.85391747321462</v>
       </c>
       <c r="J14" t="n">
-        <v>154.9459054532636</v>
+        <v>154.9459054532635</v>
       </c>
       <c r="K14" t="n">
-        <v>443.1860302481634</v>
+        <v>443.1860302481632</v>
       </c>
       <c r="L14" t="n">
-        <v>850.7433998907119</v>
+        <v>850.7433998907118</v>
       </c>
       <c r="M14" t="n">
         <v>1310.379159876956</v>
       </c>
       <c r="N14" t="n">
-        <v>1756.181478599932</v>
+        <v>1756.181478599933</v>
       </c>
       <c r="O14" t="n">
         <v>2124.896977382889</v>
       </c>
       <c r="P14" t="n">
-        <v>2407.429665198535</v>
+        <v>2407.429665198536</v>
       </c>
       <c r="Q14" t="n">
         <v>2542.695873660731</v>
@@ -5305,25 +5305,25 @@
         <v>2542.695873660731</v>
       </c>
       <c r="S14" t="n">
-        <v>2471.006928500868</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="T14" t="n">
-        <v>2355.085265715202</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="U14" t="n">
-        <v>2308.061982576938</v>
+        <v>2522.94265638968</v>
       </c>
       <c r="V14" t="n">
-        <v>2077.831112336698</v>
+        <v>2292.71178614944</v>
       </c>
       <c r="W14" t="n">
-        <v>1822.044586058119</v>
+        <v>2036.925259870861</v>
       </c>
       <c r="X14" t="n">
-        <v>1546.762849443431</v>
+        <v>1761.643523256173</v>
       </c>
       <c r="Y14" t="n">
-        <v>1259.969397883088</v>
+        <v>1474.85007169583</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J15" t="n">
-        <v>130.2226992162549</v>
+        <v>111.1080640063208</v>
       </c>
       <c r="K15" t="n">
-        <v>392.3832078845233</v>
+        <v>340.5986165665095</v>
       </c>
       <c r="L15" t="n">
-        <v>477.8506509775796</v>
+        <v>706.4204617366252</v>
       </c>
       <c r="M15" t="n">
-        <v>1014.14682775868</v>
+        <v>1191.453815246852</v>
       </c>
       <c r="N15" t="n">
-        <v>1578.032071547365</v>
+        <v>1702.719461369974</v>
       </c>
       <c r="O15" t="n">
-        <v>2018.368674122672</v>
+        <v>2082.828324599439</v>
       </c>
       <c r="P15" t="n">
-        <v>2359.098500262958</v>
+        <v>2384.924243875136</v>
       </c>
       <c r="Q15" t="n">
         <v>2542.69587366073</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>396.371925339441</v>
+        <v>396.3719253394412</v>
       </c>
       <c r="C16" t="n">
-        <v>333.5043596649404</v>
+        <v>333.5043596649406</v>
       </c>
       <c r="D16" t="n">
-        <v>287.1808703565222</v>
+        <v>287.1808703565225</v>
       </c>
       <c r="E16" t="n">
-        <v>241.9202599816601</v>
+        <v>241.9202599816604</v>
       </c>
       <c r="F16" t="n">
-        <v>196.1880088712563</v>
+        <v>196.1880088712567</v>
       </c>
       <c r="G16" t="n">
-        <v>134.1897248123606</v>
+        <v>134.1897248123605</v>
       </c>
       <c r="H16" t="n">
-        <v>83.10415049024951</v>
+        <v>83.10415049024948</v>
       </c>
       <c r="I16" t="n">
         <v>50.85391747321462</v>
       </c>
       <c r="J16" t="n">
-        <v>108.6078364153128</v>
+        <v>108.6078364153129</v>
       </c>
       <c r="K16" t="n">
-        <v>266.5425231581222</v>
+        <v>266.5425231581223</v>
       </c>
       <c r="L16" t="n">
-        <v>496.9911056284412</v>
+        <v>496.9911056284414</v>
       </c>
       <c r="M16" t="n">
         <v>746.1969269749311</v>
@@ -5463,7 +5463,7 @@
         <v>1456.433490171524</v>
       </c>
       <c r="S16" t="n">
-        <v>1352.488107620732</v>
+        <v>1352.488107620733</v>
       </c>
       <c r="T16" t="n">
         <v>1226.796999513271</v>
@@ -5478,10 +5478,10 @@
         <v>712.9697053447107</v>
       </c>
       <c r="X16" t="n">
-        <v>588.4656451039054</v>
+        <v>588.4656451039057</v>
       </c>
       <c r="Y16" t="n">
-        <v>473.1788901600017</v>
+        <v>473.178890160002</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1377.104084533087</v>
+        <v>1496.524709558688</v>
       </c>
       <c r="C17" t="n">
-        <v>1101.918729729714</v>
+        <v>1221.339354755314</v>
       </c>
       <c r="D17" t="n">
-        <v>835.8431688207567</v>
+        <v>955.2637938463567</v>
       </c>
       <c r="E17" t="n">
-        <v>547.8058527906826</v>
+        <v>667.2264778162828</v>
       </c>
       <c r="F17" t="n">
-        <v>547.8058527906826</v>
+        <v>359.8236909902722</v>
       </c>
       <c r="G17" t="n">
-        <v>238.836079273625</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H17" t="n">
-        <v>102.0488045694299</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I17" t="n">
         <v>50.85391747321462</v>
@@ -5518,22 +5518,22 @@
         <v>154.9459054532635</v>
       </c>
       <c r="K17" t="n">
-        <v>443.1860302481634</v>
+        <v>443.1860302481632</v>
       </c>
       <c r="L17" t="n">
-        <v>850.7433998907119</v>
+        <v>850.7433998907118</v>
       </c>
       <c r="M17" t="n">
         <v>1310.379159876956</v>
       </c>
       <c r="N17" t="n">
-        <v>1756.181478599932</v>
+        <v>1756.181478599933</v>
       </c>
       <c r="O17" t="n">
         <v>2124.896977382889</v>
       </c>
       <c r="P17" t="n">
-        <v>2407.429665198535</v>
+        <v>2407.429665198536</v>
       </c>
       <c r="Q17" t="n">
         <v>2542.695873660731</v>
@@ -5542,25 +5542,25 @@
         <v>2542.695873660731</v>
       </c>
       <c r="S17" t="n">
-        <v>2471.006928500868</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="T17" t="n">
-        <v>2355.085265715202</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="U17" t="n">
-        <v>2206.97919802621</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="V17" t="n">
-        <v>2206.97919802621</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="W17" t="n">
-        <v>1951.19267174763</v>
+        <v>2345.895033387918</v>
       </c>
       <c r="X17" t="n">
-        <v>1951.19267174763</v>
+        <v>2070.613296773231</v>
       </c>
       <c r="Y17" t="n">
-        <v>1664.399220187287</v>
+        <v>1783.819845212888</v>
       </c>
     </row>
     <row r="18">
@@ -5570,10 +5570,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>920.8593958421037</v>
+        <v>920.8593958421039</v>
       </c>
       <c r="C18" t="n">
-        <v>759.1557230830585</v>
+        <v>759.1557230830587</v>
       </c>
       <c r="D18" t="n">
         <v>620.3170860732707</v>
@@ -5582,7 +5582,7 @@
         <v>473.2890761301419</v>
       </c>
       <c r="F18" t="n">
-        <v>338.5952780800162</v>
+        <v>338.5952780800163</v>
       </c>
       <c r="G18" t="n">
         <v>210.0732042050868</v>
@@ -5594,28 +5594,28 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J18" t="n">
-        <v>130.2226992162549</v>
+        <v>111.1080640063208</v>
       </c>
       <c r="K18" t="n">
-        <v>392.3832078845233</v>
+        <v>340.5986165665095</v>
       </c>
       <c r="L18" t="n">
-        <v>516.484557842169</v>
+        <v>706.4204617366252</v>
       </c>
       <c r="M18" t="n">
-        <v>1052.780734623269</v>
+        <v>1242.716638517726</v>
       </c>
       <c r="N18" t="n">
-        <v>1616.665978411954</v>
+        <v>1800.263351809726</v>
       </c>
       <c r="O18" t="n">
-        <v>2057.002580987261</v>
+        <v>2240.599954385033</v>
       </c>
       <c r="P18" t="n">
-        <v>2359.098500262959</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="Q18" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="R18" t="n">
         <v>2495.728130619192</v>
@@ -5664,10 +5664,10 @@
         <v>196.1880088712563</v>
       </c>
       <c r="G19" t="n">
-        <v>134.1897248123606</v>
+        <v>134.1897248123605</v>
       </c>
       <c r="H19" t="n">
-        <v>83.10415049024949</v>
+        <v>83.10415049024948</v>
       </c>
       <c r="I19" t="n">
         <v>50.85391747321462</v>
@@ -5676,22 +5676,22 @@
         <v>108.6078364153128</v>
       </c>
       <c r="K19" t="n">
-        <v>266.5425231581227</v>
+        <v>266.5425231581222</v>
       </c>
       <c r="L19" t="n">
-        <v>496.9911056284417</v>
+        <v>496.9911056284413</v>
       </c>
       <c r="M19" t="n">
-        <v>746.1969269749316</v>
+        <v>746.1969269749312</v>
       </c>
       <c r="N19" t="n">
-        <v>995.1993758657826</v>
+        <v>995.1993758657823</v>
       </c>
       <c r="O19" t="n">
         <v>1222.261696869152</v>
       </c>
       <c r="P19" t="n">
-        <v>1410.368672358095</v>
+        <v>1410.368672358094</v>
       </c>
       <c r="Q19" t="n">
         <v>1491.425428885453</v>
@@ -5709,10 +5709,10 @@
         <v>1046.364603541251</v>
       </c>
       <c r="V19" t="n">
-        <v>892.3777029634923</v>
+        <v>892.3777029634924</v>
       </c>
       <c r="W19" t="n">
-        <v>712.9697053447105</v>
+        <v>712.9697053447106</v>
       </c>
       <c r="X19" t="n">
         <v>588.4656451039054</v>
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1196.362951348412</v>
+        <v>1496.524709558688</v>
       </c>
       <c r="C20" t="n">
-        <v>921.177596545039</v>
+        <v>1221.339354755314</v>
       </c>
       <c r="D20" t="n">
-        <v>921.177596545039</v>
+        <v>955.2637938463567</v>
       </c>
       <c r="E20" t="n">
-        <v>633.1402805149651</v>
+        <v>667.2264778162828</v>
       </c>
       <c r="F20" t="n">
-        <v>633.1402805149651</v>
+        <v>359.8236909902722</v>
       </c>
       <c r="G20" t="n">
-        <v>324.1705069979075</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H20" t="n">
-        <v>102.0488045694299</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I20" t="n">
         <v>50.85391747321462</v>
@@ -5764,7 +5764,7 @@
         <v>1310.379159876956</v>
       </c>
       <c r="N20" t="n">
-        <v>1756.181478599933</v>
+        <v>1756.181478599932</v>
       </c>
       <c r="O20" t="n">
         <v>2124.896977382889</v>
@@ -5779,25 +5779,25 @@
         <v>2542.695873660731</v>
       </c>
       <c r="S20" t="n">
-        <v>2471.006928500868</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="T20" t="n">
-        <v>2393.063287825112</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="U20" t="n">
-        <v>2244.95722013612</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="V20" t="n">
-        <v>2014.72634989588</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="W20" t="n">
-        <v>1758.9398236173</v>
+        <v>2345.895033387918</v>
       </c>
       <c r="X20" t="n">
-        <v>1483.658087002613</v>
+        <v>2070.613296773231</v>
       </c>
       <c r="Y20" t="n">
-        <v>1483.658087002613</v>
+        <v>1783.819845212888</v>
       </c>
     </row>
     <row r="21">
@@ -5837,19 +5837,19 @@
         <v>280.3444700334033</v>
       </c>
       <c r="L21" t="n">
-        <v>690.0951029138291</v>
+        <v>646.1663152035189</v>
       </c>
       <c r="M21" t="n">
-        <v>1226.391279694929</v>
+        <v>1182.462491984619</v>
       </c>
       <c r="N21" t="n">
-        <v>1790.276523483614</v>
+        <v>1746.347735773304</v>
       </c>
       <c r="O21" t="n">
-        <v>2230.613126058921</v>
+        <v>2186.684338348611</v>
       </c>
       <c r="P21" t="n">
-        <v>2359.098500262958</v>
+        <v>2488.780257624308</v>
       </c>
       <c r="Q21" t="n">
         <v>2542.69587366073</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>396.3719253394407</v>
+        <v>396.371925339441</v>
       </c>
       <c r="C22" t="n">
-        <v>333.5043596649401</v>
+        <v>333.5043596649404</v>
       </c>
       <c r="D22" t="n">
-        <v>287.180870356522</v>
+        <v>287.1808703565222</v>
       </c>
       <c r="E22" t="n">
-        <v>241.9202599816599</v>
+        <v>241.9202599816601</v>
       </c>
       <c r="F22" t="n">
-        <v>196.188008871256</v>
+        <v>196.1880088712563</v>
       </c>
       <c r="G22" t="n">
-        <v>134.1897248123605</v>
+        <v>134.1897248123606</v>
       </c>
       <c r="H22" t="n">
         <v>83.10415049024949</v>
@@ -5913,22 +5913,22 @@
         <v>108.6078364153128</v>
       </c>
       <c r="K22" t="n">
-        <v>266.5425231581223</v>
+        <v>266.5425231581222</v>
       </c>
       <c r="L22" t="n">
-        <v>496.9911056284413</v>
+        <v>496.9911056284412</v>
       </c>
       <c r="M22" t="n">
-        <v>746.1969269749312</v>
+        <v>746.1969269749316</v>
       </c>
       <c r="N22" t="n">
-        <v>995.1993758657823</v>
+        <v>995.1993758657826</v>
       </c>
       <c r="O22" t="n">
         <v>1222.261696869152</v>
       </c>
       <c r="P22" t="n">
-        <v>1410.368672358094</v>
+        <v>1410.368672358095</v>
       </c>
       <c r="Q22" t="n">
         <v>1491.425428885453</v>
@@ -5943,19 +5943,19 @@
         <v>1226.796999513271</v>
       </c>
       <c r="U22" t="n">
-        <v>1046.36460354125</v>
+        <v>1046.364603541251</v>
       </c>
       <c r="V22" t="n">
-        <v>892.377702963492</v>
+        <v>892.3777029634923</v>
       </c>
       <c r="W22" t="n">
-        <v>712.9697053447103</v>
+        <v>712.9697053447105</v>
       </c>
       <c r="X22" t="n">
-        <v>588.4656451039052</v>
+        <v>588.4656451039054</v>
       </c>
       <c r="Y22" t="n">
-        <v>473.1788901600014</v>
+        <v>473.1788901600017</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1019.697545367152</v>
+        <v>1121.639322440034</v>
       </c>
       <c r="C23" t="n">
-        <v>744.5121905637786</v>
+        <v>846.4539676366601</v>
       </c>
       <c r="D23" t="n">
-        <v>744.5121905637786</v>
+        <v>580.3784067277028</v>
       </c>
       <c r="E23" t="n">
-        <v>456.4748745337046</v>
+        <v>580.3784067277028</v>
       </c>
       <c r="F23" t="n">
         <v>272.9756199016922</v>
@@ -5989,19 +5989,19 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J23" t="n">
-        <v>154.9459054532635</v>
+        <v>154.9459054532636</v>
       </c>
       <c r="K23" t="n">
         <v>443.1860302481634</v>
       </c>
       <c r="L23" t="n">
-        <v>850.7433998907119</v>
+        <v>850.743399890712</v>
       </c>
       <c r="M23" t="n">
         <v>1310.379159876956</v>
       </c>
       <c r="N23" t="n">
-        <v>1756.181478599932</v>
+        <v>1756.181478599933</v>
       </c>
       <c r="O23" t="n">
         <v>2124.896977382889</v>
@@ -6016,25 +6016,25 @@
         <v>2542.695873660731</v>
       </c>
       <c r="S23" t="n">
-        <v>2471.006928500868</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="T23" t="n">
-        <v>2355.085265715202</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="U23" t="n">
-        <v>2355.085265715202</v>
+        <v>2394.589805971739</v>
       </c>
       <c r="V23" t="n">
-        <v>2124.854395474963</v>
+        <v>2164.358935731499</v>
       </c>
       <c r="W23" t="n">
-        <v>1869.067869196383</v>
+        <v>1971.009646269264</v>
       </c>
       <c r="X23" t="n">
-        <v>1593.786132581695</v>
+        <v>1695.727909654576</v>
       </c>
       <c r="Y23" t="n">
-        <v>1306.992681021352</v>
+        <v>1408.934458094234</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J24" t="n">
-        <v>130.2226992162549</v>
+        <v>111.1080640063208</v>
       </c>
       <c r="K24" t="n">
-        <v>392.3832078845233</v>
+        <v>340.5986165665094</v>
       </c>
       <c r="L24" t="n">
-        <v>758.2050530546389</v>
+        <v>706.420461736625</v>
       </c>
       <c r="M24" t="n">
-        <v>1294.501229835739</v>
+        <v>1242.716638517725</v>
       </c>
       <c r="N24" t="n">
-        <v>1761.629444945137</v>
+        <v>1642.491722024132</v>
       </c>
       <c r="O24" t="n">
-        <v>2201.966047520444</v>
+        <v>2082.828324599439</v>
       </c>
       <c r="P24" t="n">
-        <v>2542.69587366073</v>
+        <v>2384.924243875136</v>
       </c>
       <c r="Q24" t="n">
         <v>2542.69587366073</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>396.3719253394408</v>
+        <v>396.371925339441</v>
       </c>
       <c r="C25" t="n">
-        <v>333.5043596649402</v>
+        <v>333.5043596649404</v>
       </c>
       <c r="D25" t="n">
-        <v>287.1808703565221</v>
+        <v>287.1808703565222</v>
       </c>
       <c r="E25" t="n">
-        <v>241.92025998166</v>
+        <v>241.9202599816601</v>
       </c>
       <c r="F25" t="n">
-        <v>196.1880088712562</v>
+        <v>196.1880088712563</v>
       </c>
       <c r="G25" t="n">
-        <v>134.1897248123605</v>
+        <v>134.1897248123606</v>
       </c>
       <c r="H25" t="n">
-        <v>83.10415049024948</v>
+        <v>83.10415049024949</v>
       </c>
       <c r="I25" t="n">
         <v>50.85391747321462</v>
@@ -6150,22 +6150,22 @@
         <v>108.6078364153128</v>
       </c>
       <c r="K25" t="n">
-        <v>266.5425231581224</v>
+        <v>266.5425231581222</v>
       </c>
       <c r="L25" t="n">
-        <v>496.9911056284415</v>
+        <v>496.9911056284412</v>
       </c>
       <c r="M25" t="n">
-        <v>746.1969269749313</v>
+        <v>746.1969269749316</v>
       </c>
       <c r="N25" t="n">
-        <v>995.1993758657824</v>
+        <v>995.1993758657826</v>
       </c>
       <c r="O25" t="n">
         <v>1222.261696869152</v>
       </c>
       <c r="P25" t="n">
-        <v>1410.368672358094</v>
+        <v>1410.368672358095</v>
       </c>
       <c r="Q25" t="n">
         <v>1491.425428885453</v>
@@ -6183,16 +6183,16 @@
         <v>1046.364603541251</v>
       </c>
       <c r="V25" t="n">
-        <v>892.3777029634922</v>
+        <v>892.3777029634923</v>
       </c>
       <c r="W25" t="n">
-        <v>712.9697053447104</v>
+        <v>712.9697053447105</v>
       </c>
       <c r="X25" t="n">
-        <v>588.4656451039053</v>
+        <v>588.4656451039054</v>
       </c>
       <c r="Y25" t="n">
-        <v>473.1788901600016</v>
+        <v>473.1788901600017</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1019.697545367152</v>
+        <v>1718.646411987165</v>
       </c>
       <c r="C26" t="n">
-        <v>744.5121905637785</v>
+        <v>1443.461057183792</v>
       </c>
       <c r="D26" t="n">
-        <v>647.8610070203463</v>
+        <v>1177.385496274834</v>
       </c>
       <c r="E26" t="n">
-        <v>359.8236909902722</v>
+        <v>889.3481802447603</v>
       </c>
       <c r="F26" t="n">
-        <v>359.8236909902722</v>
+        <v>581.9453934187497</v>
       </c>
       <c r="G26" t="n">
-        <v>50.85391747321462</v>
+        <v>272.9756199016922</v>
       </c>
       <c r="H26" t="n">
         <v>50.85391747321462</v>
@@ -6232,7 +6232,7 @@
         <v>443.1860302481634</v>
       </c>
       <c r="L26" t="n">
-        <v>850.7433998907119</v>
+        <v>850.743399890712</v>
       </c>
       <c r="M26" t="n">
         <v>1310.379159876956</v>
@@ -6253,25 +6253,25 @@
         <v>2542.695873660731</v>
       </c>
       <c r="S26" t="n">
-        <v>2471.006928500868</v>
+        <v>2525.755804394602</v>
       </c>
       <c r="T26" t="n">
-        <v>2355.085265715202</v>
+        <v>2409.834141608937</v>
       </c>
       <c r="U26" t="n">
-        <v>2355.085265715202</v>
+        <v>2261.728073919945</v>
       </c>
       <c r="V26" t="n">
-        <v>2124.854395474963</v>
+        <v>2261.728073919945</v>
       </c>
       <c r="W26" t="n">
-        <v>1869.067869196383</v>
+        <v>2005.941547641365</v>
       </c>
       <c r="X26" t="n">
-        <v>1593.786132581695</v>
+        <v>2005.941547641365</v>
       </c>
       <c r="Y26" t="n">
-        <v>1306.992681021352</v>
+        <v>2005.941547641365</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J27" t="n">
-        <v>130.2226992162549</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K27" t="n">
-        <v>392.3832078845233</v>
+        <v>280.3444700334033</v>
       </c>
       <c r="L27" t="n">
-        <v>477.8506509775796</v>
+        <v>646.1663152035189</v>
       </c>
       <c r="M27" t="n">
-        <v>1014.14682775868</v>
+        <v>1179.362727692166</v>
       </c>
       <c r="N27" t="n">
-        <v>1578.032071547365</v>
+        <v>1690.628373815288</v>
       </c>
       <c r="O27" t="n">
-        <v>2018.368674122672</v>
+        <v>2082.828324599439</v>
       </c>
       <c r="P27" t="n">
-        <v>2359.098500262958</v>
+        <v>2384.924243875136</v>
       </c>
       <c r="Q27" t="n">
         <v>2542.69587366073</v>
@@ -6360,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>396.371925339441</v>
+        <v>396.3719253394402</v>
       </c>
       <c r="C28" t="n">
-        <v>333.5043596649405</v>
+        <v>333.5043596649404</v>
       </c>
       <c r="D28" t="n">
         <v>287.1808703565222</v>
@@ -6372,13 +6372,13 @@
         <v>241.9202599816601</v>
       </c>
       <c r="F28" t="n">
-        <v>196.1880088712564</v>
+        <v>196.1880088712563</v>
       </c>
       <c r="G28" t="n">
         <v>134.1897248123606</v>
       </c>
       <c r="H28" t="n">
-        <v>83.10415049024951</v>
+        <v>83.10415049024949</v>
       </c>
       <c r="I28" t="n">
         <v>50.85391747321462</v>
@@ -6405,7 +6405,7 @@
         <v>1410.368672358094</v>
       </c>
       <c r="Q28" t="n">
-        <v>1491.425428885453</v>
+        <v>1491.425428885452</v>
       </c>
       <c r="R28" t="n">
         <v>1456.433490171524</v>
@@ -6417,19 +6417,19 @@
         <v>1226.796999513271</v>
       </c>
       <c r="U28" t="n">
-        <v>1046.364603541251</v>
+        <v>1046.36460354125</v>
       </c>
       <c r="V28" t="n">
-        <v>892.3777029634924</v>
+        <v>892.3777029634917</v>
       </c>
       <c r="W28" t="n">
-        <v>712.9697053447107</v>
+        <v>712.96970534471</v>
       </c>
       <c r="X28" t="n">
-        <v>588.4656451039056</v>
+        <v>588.4656451039048</v>
       </c>
       <c r="Y28" t="n">
-        <v>473.1788901600017</v>
+        <v>473.1788901600009</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1174.401196227295</v>
+        <v>1693.3255498315</v>
       </c>
       <c r="C29" t="n">
-        <v>899.215841423922</v>
+        <v>1418.140195028127</v>
       </c>
       <c r="D29" t="n">
-        <v>633.1402805149648</v>
+        <v>1152.06463411917</v>
       </c>
       <c r="E29" t="n">
-        <v>633.1402805149648</v>
+        <v>864.0273180890956</v>
       </c>
       <c r="F29" t="n">
-        <v>633.1402805149648</v>
+        <v>556.624531263085</v>
       </c>
       <c r="G29" t="n">
-        <v>324.1705069979074</v>
+        <v>247.6547577460274</v>
       </c>
       <c r="H29" t="n">
-        <v>102.0488045694298</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I29" t="n">
         <v>50.85391747321462</v>
@@ -6493,22 +6493,22 @@
         <v>2542.695873660731</v>
       </c>
       <c r="T29" t="n">
-        <v>2426.774210875065</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="U29" t="n">
-        <v>2278.668143186073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="V29" t="n">
-        <v>2048.437272945834</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="W29" t="n">
-        <v>1792.650746667254</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="X29" t="n">
-        <v>1517.369010052566</v>
+        <v>2267.414137046043</v>
       </c>
       <c r="Y29" t="n">
-        <v>1230.575558492224</v>
+        <v>1980.620685485701</v>
       </c>
     </row>
     <row r="30">
@@ -6518,52 +6518,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>920.8593958421039</v>
+        <v>920.8593958421042</v>
       </c>
       <c r="C30" t="n">
-        <v>759.1557230830587</v>
+        <v>759.155723083059</v>
       </c>
       <c r="D30" t="n">
-        <v>620.3170860732707</v>
+        <v>620.3170860732712</v>
       </c>
       <c r="E30" t="n">
-        <v>473.2890761301419</v>
+        <v>473.2890761301423</v>
       </c>
       <c r="F30" t="n">
-        <v>338.5952780800163</v>
+        <v>338.5952780800167</v>
       </c>
       <c r="G30" t="n">
         <v>210.0732042050868</v>
       </c>
       <c r="H30" t="n">
-        <v>112.1289883137699</v>
+        <v>112.1289883137697</v>
       </c>
       <c r="I30" t="n">
         <v>50.85391747321462</v>
       </c>
       <c r="J30" t="n">
-        <v>130.2226992162549</v>
+        <v>111.1080640063208</v>
       </c>
       <c r="K30" t="n">
-        <v>392.3832078845233</v>
+        <v>355.5798124313631</v>
       </c>
       <c r="L30" t="n">
-        <v>802.1338407649491</v>
+        <v>765.3304453117888</v>
       </c>
       <c r="M30" t="n">
-        <v>1338.430017546049</v>
+        <v>1250.363798822015</v>
       </c>
       <c r="N30" t="n">
-        <v>1626.168723338521</v>
+        <v>1761.629444945137</v>
       </c>
       <c r="O30" t="n">
-        <v>2018.368674122672</v>
+        <v>2201.966047520445</v>
       </c>
       <c r="P30" t="n">
-        <v>2359.098500262958</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="Q30" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="R30" t="n">
         <v>2495.728130619192</v>
@@ -6572,16 +6572,16 @@
         <v>2346.762917934841</v>
       </c>
       <c r="T30" t="n">
-        <v>2158.909856151446</v>
+        <v>2158.909856151447</v>
       </c>
       <c r="U30" t="n">
-        <v>1940.428644414347</v>
+        <v>1940.428644414348</v>
       </c>
       <c r="V30" t="n">
-        <v>1712.033021862681</v>
+        <v>1712.033021862682</v>
       </c>
       <c r="W30" t="n">
-        <v>1470.717153095991</v>
+        <v>1470.717153095992</v>
       </c>
       <c r="X30" t="n">
         <v>1272.800164973786</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>396.3719253394406</v>
+        <v>396.371925339441</v>
       </c>
       <c r="C31" t="n">
-        <v>333.50435966494</v>
+        <v>333.5043596649404</v>
       </c>
       <c r="D31" t="n">
-        <v>287.1808703565219</v>
+        <v>287.1808703565222</v>
       </c>
       <c r="E31" t="n">
-        <v>241.9202599816599</v>
+        <v>241.9202599816601</v>
       </c>
       <c r="F31" t="n">
-        <v>196.1880088712562</v>
+        <v>196.1880088712563</v>
       </c>
       <c r="G31" t="n">
-        <v>134.1897248123605</v>
+        <v>134.1897248123606</v>
       </c>
       <c r="H31" t="n">
-        <v>83.10415049024945</v>
+        <v>83.10415049024951</v>
       </c>
       <c r="I31" t="n">
         <v>50.85391747321462</v>
       </c>
       <c r="J31" t="n">
-        <v>108.6078364153129</v>
+        <v>108.6078364153128</v>
       </c>
       <c r="K31" t="n">
-        <v>266.5425231581223</v>
+        <v>266.5425231581222</v>
       </c>
       <c r="L31" t="n">
-        <v>496.9911056284414</v>
+        <v>496.9911056284412</v>
       </c>
       <c r="M31" t="n">
-        <v>746.1969269749312</v>
+        <v>746.1969269749311</v>
       </c>
       <c r="N31" t="n">
         <v>995.1993758657823</v>
@@ -6654,19 +6654,19 @@
         <v>1226.796999513271</v>
       </c>
       <c r="U31" t="n">
-        <v>1046.36460354125</v>
+        <v>1046.364603541251</v>
       </c>
       <c r="V31" t="n">
-        <v>892.3777029634917</v>
+        <v>892.3777029634925</v>
       </c>
       <c r="W31" t="n">
-        <v>712.9697053447101</v>
+        <v>712.9697053447107</v>
       </c>
       <c r="X31" t="n">
-        <v>588.465645103905</v>
+        <v>588.4656451039057</v>
       </c>
       <c r="Y31" t="n">
-        <v>473.1788901600012</v>
+        <v>473.1788901600017</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>896.3560921657684</v>
+        <v>1703.042577294884</v>
       </c>
       <c r="C32" t="n">
-        <v>623.7713764777757</v>
+        <v>1430.457861606891</v>
       </c>
       <c r="D32" t="n">
-        <v>623.7713764777757</v>
+        <v>1166.982939813314</v>
       </c>
       <c r="E32" t="n">
-        <v>623.7713764777757</v>
+        <v>881.5462628986197</v>
       </c>
       <c r="F32" t="n">
-        <v>318.9692287671459</v>
+        <v>576.7441151879893</v>
       </c>
       <c r="G32" t="n">
-        <v>318.9692287671459</v>
+        <v>270.374980786312</v>
       </c>
       <c r="H32" t="n">
-        <v>99.44816545404908</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I32" t="n">
         <v>50.85391747321462</v>
@@ -6727,25 +6727,25 @@
         <v>2542.695873660731</v>
       </c>
       <c r="S32" t="n">
-        <v>2473.607567616249</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="T32" t="n">
-        <v>2360.286543945964</v>
+        <v>2429.374849990446</v>
       </c>
       <c r="U32" t="n">
-        <v>2214.781115372353</v>
+        <v>2429.374849990446</v>
       </c>
       <c r="V32" t="n">
-        <v>1987.150884247494</v>
+        <v>2429.374849990446</v>
       </c>
       <c r="W32" t="n">
-        <v>1733.964997084295</v>
+        <v>2429.374849990446</v>
       </c>
       <c r="X32" t="n">
-        <v>1461.283899584988</v>
+        <v>2271.929886278666</v>
       </c>
       <c r="Y32" t="n">
-        <v>1181.050588704588</v>
+        <v>1987.737073833704</v>
       </c>
     </row>
     <row r="33">
@@ -6779,22 +6779,22 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J33" t="n">
-        <v>130.2226992162549</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K33" t="n">
-        <v>392.3832078845233</v>
+        <v>68.10001809715379</v>
       </c>
       <c r="L33" t="n">
-        <v>802.1338407649491</v>
+        <v>477.8506509775796</v>
       </c>
       <c r="M33" t="n">
-        <v>1052.780734623269</v>
+        <v>1014.14682775868</v>
       </c>
       <c r="N33" t="n">
-        <v>1616.665978411954</v>
+        <v>1578.032071547365</v>
       </c>
       <c r="O33" t="n">
-        <v>2057.002580987261</v>
+        <v>2018.368674122672</v>
       </c>
       <c r="P33" t="n">
         <v>2359.098500262958</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>378.1674515317753</v>
+        <v>378.1674515317792</v>
       </c>
       <c r="C34" t="n">
-        <v>317.9005249726555</v>
+        <v>317.9005249726588</v>
       </c>
       <c r="D34" t="n">
-        <v>274.1776747796181</v>
+        <v>274.1776747796209</v>
       </c>
       <c r="E34" t="n">
-        <v>231.5177035201369</v>
+        <v>231.5177035201391</v>
       </c>
       <c r="F34" t="n">
-        <v>188.3860915251139</v>
+        <v>188.3860915251155</v>
       </c>
       <c r="G34" t="n">
-        <v>128.9884465815989</v>
+        <v>128.9884465816</v>
       </c>
       <c r="H34" t="n">
-        <v>80.50351137486868</v>
+        <v>80.50351137486925</v>
       </c>
       <c r="I34" t="n">
         <v>50.85391747321462</v>
       </c>
       <c r="J34" t="n">
-        <v>111.1567228122976</v>
+        <v>111.156722812297</v>
       </c>
       <c r="K34" t="n">
-        <v>271.6402959520917</v>
+        <v>271.6402959520906</v>
       </c>
       <c r="L34" t="n">
-        <v>504.6377648193954</v>
+        <v>504.6377648193939</v>
       </c>
       <c r="M34" t="n">
-        <v>694.3911555408995</v>
+        <v>756.3924725628679</v>
       </c>
       <c r="N34" t="n">
-        <v>945.9424908287353</v>
+        <v>1007.943807850703</v>
       </c>
       <c r="O34" t="n">
-        <v>1175.553698229089</v>
+        <v>1175.5536982291</v>
       </c>
       <c r="P34" t="n">
-        <v>1366.209560115017</v>
+        <v>1366.209560115027</v>
       </c>
       <c r="Q34" t="n">
-        <v>1449.81520303936</v>
+        <v>1449.815203039369</v>
       </c>
       <c r="R34" t="n">
-        <v>1417.423903440812</v>
+        <v>1417.423903440821</v>
       </c>
       <c r="S34" t="n">
-        <v>1316.079160005401</v>
+        <v>1316.079160005409</v>
       </c>
       <c r="T34" t="n">
-        <v>1192.988691013321</v>
+        <v>1192.988691013328</v>
       </c>
       <c r="U34" t="n">
-        <v>1015.156934156681</v>
+        <v>1015.156934156688</v>
       </c>
       <c r="V34" t="n">
-        <v>863.7706726943036</v>
+        <v>863.7706726943097</v>
       </c>
       <c r="W34" t="n">
-        <v>686.9633141909026</v>
+        <v>686.9633141909081</v>
       </c>
       <c r="X34" t="n">
-        <v>565.0598930654783</v>
+        <v>565.0598930654833</v>
       </c>
       <c r="Y34" t="n">
-        <v>452.3737772369552</v>
+        <v>452.3737772369597</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>892.3965906012068</v>
+        <v>1074.805920315971</v>
       </c>
       <c r="C35" t="n">
-        <v>619.8118749132141</v>
+        <v>802.2212046279773</v>
       </c>
       <c r="D35" t="n">
-        <v>619.8118749132141</v>
+        <v>538.7462828344002</v>
       </c>
       <c r="E35" t="n">
-        <v>404.2503131646789</v>
+        <v>253.3096059197064</v>
       </c>
       <c r="F35" t="n">
-        <v>99.44816545404908</v>
+        <v>253.3096059197064</v>
       </c>
       <c r="G35" t="n">
-        <v>99.44816545404908</v>
+        <v>253.3096059197064</v>
       </c>
       <c r="H35" t="n">
-        <v>99.44816545404908</v>
+        <v>99.44816545404962</v>
       </c>
       <c r="I35" t="n">
         <v>50.85391747321462</v>
       </c>
       <c r="J35" t="n">
-        <v>154.9459054532636</v>
+        <v>154.9459054532635</v>
       </c>
       <c r="K35" t="n">
         <v>443.1860302481634</v>
       </c>
       <c r="L35" t="n">
-        <v>850.743399890712</v>
+        <v>850.7433998907119</v>
       </c>
       <c r="M35" t="n">
         <v>1310.379159876956</v>
       </c>
       <c r="N35" t="n">
-        <v>1756.181478599933</v>
+        <v>1756.181478599932</v>
       </c>
       <c r="O35" t="n">
         <v>2124.896977382889</v>
@@ -6964,25 +6964,25 @@
         <v>2542.695873660731</v>
       </c>
       <c r="S35" t="n">
-        <v>2473.607567616249</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="T35" t="n">
-        <v>2360.286543945964</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="U35" t="n">
-        <v>2214.781115372353</v>
+        <v>2397.190445087119</v>
       </c>
       <c r="V35" t="n">
-        <v>1987.150884247494</v>
+        <v>2169.56021396226</v>
       </c>
       <c r="W35" t="n">
-        <v>1733.964997084295</v>
+        <v>1916.37432679906</v>
       </c>
       <c r="X35" t="n">
-        <v>1461.283899584988</v>
+        <v>1643.693229299753</v>
       </c>
       <c r="Y35" t="n">
-        <v>1177.091087140026</v>
+        <v>1359.50041685479</v>
       </c>
     </row>
     <row r="36">
@@ -7016,16 +7016,16 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J36" t="n">
-        <v>130.2226992162549</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K36" t="n">
-        <v>359.7132517764436</v>
+        <v>68.10001809715379</v>
       </c>
       <c r="L36" t="n">
-        <v>530.4702486431423</v>
+        <v>477.8506509775796</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.766425424243</v>
+        <v>1014.14682775868</v>
       </c>
       <c r="N36" t="n">
         <v>1578.032071547365</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>378.1674515317753</v>
+        <v>378.1674515317792</v>
       </c>
       <c r="C37" t="n">
-        <v>317.9005249726555</v>
+        <v>317.9005249726588</v>
       </c>
       <c r="D37" t="n">
-        <v>274.1776747796181</v>
+        <v>274.1776747796209</v>
       </c>
       <c r="E37" t="n">
-        <v>231.5177035201369</v>
+        <v>231.5177035201391</v>
       </c>
       <c r="F37" t="n">
-        <v>188.3860915251139</v>
+        <v>188.3860915251155</v>
       </c>
       <c r="G37" t="n">
-        <v>128.988446581599</v>
+        <v>128.9884465816</v>
       </c>
       <c r="H37" t="n">
-        <v>80.50351137486869</v>
+        <v>80.50351137486925</v>
       </c>
       <c r="I37" t="n">
         <v>50.85391747321462</v>
       </c>
       <c r="J37" t="n">
-        <v>111.1567228122975</v>
+        <v>111.156722812297</v>
       </c>
       <c r="K37" t="n">
-        <v>271.6402959520916</v>
+        <v>271.6402959520906</v>
       </c>
       <c r="L37" t="n">
-        <v>504.6377648193954</v>
+        <v>504.6377648193939</v>
       </c>
       <c r="M37" t="n">
-        <v>756.3924725628701</v>
+        <v>756.3924725628679</v>
       </c>
       <c r="N37" t="n">
-        <v>945.9424908287357</v>
+        <v>1007.943807850703</v>
       </c>
       <c r="O37" t="n">
-        <v>1175.55369822909</v>
+        <v>1175.5536982291</v>
       </c>
       <c r="P37" t="n">
-        <v>1366.209560115017</v>
+        <v>1366.209560115027</v>
       </c>
       <c r="Q37" t="n">
-        <v>1449.81520303936</v>
+        <v>1449.815203039369</v>
       </c>
       <c r="R37" t="n">
-        <v>1417.423903440813</v>
+        <v>1417.423903440821</v>
       </c>
       <c r="S37" t="n">
-        <v>1316.079160005401</v>
+        <v>1316.079160005409</v>
       </c>
       <c r="T37" t="n">
-        <v>1192.988691013321</v>
+        <v>1192.988691013328</v>
       </c>
       <c r="U37" t="n">
-        <v>1015.156934156681</v>
+        <v>1015.156934156688</v>
       </c>
       <c r="V37" t="n">
-        <v>863.7706726943036</v>
+        <v>863.7706726943097</v>
       </c>
       <c r="W37" t="n">
-        <v>686.9633141909026</v>
+        <v>686.9633141909081</v>
       </c>
       <c r="X37" t="n">
-        <v>565.0598930654783</v>
+        <v>565.0598930654833</v>
       </c>
       <c r="Y37" t="n">
-        <v>452.3737772369553</v>
+        <v>452.3737772369597</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>906.1346505831613</v>
+        <v>1378.853273969959</v>
       </c>
       <c r="C38" t="n">
-        <v>906.1346505831613</v>
+        <v>1106.268558281965</v>
       </c>
       <c r="D38" t="n">
-        <v>642.6597287895847</v>
+        <v>842.7936364883883</v>
       </c>
       <c r="E38" t="n">
-        <v>357.2230518748914</v>
+        <v>557.3569595736944</v>
       </c>
       <c r="F38" t="n">
-        <v>357.2230518748914</v>
+        <v>252.5548118630641</v>
       </c>
       <c r="G38" t="n">
         <v>50.85391747321462</v>
@@ -7174,13 +7174,13 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J38" t="n">
-        <v>154.9459054532636</v>
+        <v>154.9459054532635</v>
       </c>
       <c r="K38" t="n">
         <v>443.1860302481634</v>
       </c>
       <c r="L38" t="n">
-        <v>850.743399890712</v>
+        <v>850.7433998907119</v>
       </c>
       <c r="M38" t="n">
         <v>1310.379159876956</v>
@@ -7201,25 +7201,25 @@
         <v>2542.695873660731</v>
       </c>
       <c r="S38" t="n">
-        <v>2487.345627598203</v>
+        <v>2473.607567616248</v>
       </c>
       <c r="T38" t="n">
-        <v>2374.024603927919</v>
+        <v>2473.607567616248</v>
       </c>
       <c r="U38" t="n">
-        <v>2228.519175354307</v>
+        <v>2473.607567616248</v>
       </c>
       <c r="V38" t="n">
-        <v>2000.888944229448</v>
+        <v>2473.607567616248</v>
       </c>
       <c r="W38" t="n">
-        <v>1747.703057066249</v>
+        <v>2220.421680453048</v>
       </c>
       <c r="X38" t="n">
-        <v>1475.021959566943</v>
+        <v>1947.740582953741</v>
       </c>
       <c r="Y38" t="n">
-        <v>1190.82914712198</v>
+        <v>1663.547770508779</v>
       </c>
     </row>
     <row r="39">
@@ -7253,22 +7253,22 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J39" t="n">
-        <v>130.2226992162549</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K39" t="n">
-        <v>130.2226992162549</v>
+        <v>68.10001809715379</v>
       </c>
       <c r="L39" t="n">
-        <v>539.9733320966807</v>
+        <v>477.8506509775796</v>
       </c>
       <c r="M39" t="n">
-        <v>1076.269508877781</v>
+        <v>1014.14682775868</v>
       </c>
       <c r="N39" t="n">
-        <v>1640.154752666466</v>
+        <v>1578.032071547365</v>
       </c>
       <c r="O39" t="n">
-        <v>2080.491355241773</v>
+        <v>2018.368674122672</v>
       </c>
       <c r="P39" t="n">
         <v>2359.098500262958</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>378.1674515317753</v>
+        <v>378.1674515317792</v>
       </c>
       <c r="C40" t="n">
-        <v>317.9005249726555</v>
+        <v>317.9005249726588</v>
       </c>
       <c r="D40" t="n">
-        <v>274.1776747796181</v>
+        <v>274.1776747796209</v>
       </c>
       <c r="E40" t="n">
-        <v>231.5177035201369</v>
+        <v>231.5177035201391</v>
       </c>
       <c r="F40" t="n">
-        <v>188.3860915251139</v>
+        <v>188.3860915251155</v>
       </c>
       <c r="G40" t="n">
-        <v>128.988446581599</v>
+        <v>128.9884465816</v>
       </c>
       <c r="H40" t="n">
-        <v>80.50351137486869</v>
+        <v>80.50351137486925</v>
       </c>
       <c r="I40" t="n">
         <v>50.85391747321462</v>
       </c>
       <c r="J40" t="n">
-        <v>111.1567228122975</v>
+        <v>111.156722812297</v>
       </c>
       <c r="K40" t="n">
-        <v>271.6402959520916</v>
+        <v>271.6402959520906</v>
       </c>
       <c r="L40" t="n">
-        <v>504.6377648193954</v>
+        <v>504.6377648193939</v>
       </c>
       <c r="M40" t="n">
-        <v>694.3911555408999</v>
+        <v>756.3924725628679</v>
       </c>
       <c r="N40" t="n">
-        <v>945.9424908287357</v>
+        <v>1007.943807850703</v>
       </c>
       <c r="O40" t="n">
-        <v>1175.55369822909</v>
+        <v>1237.555015251057</v>
       </c>
       <c r="P40" t="n">
-        <v>1366.209560115017</v>
+        <v>1366.209560115027</v>
       </c>
       <c r="Q40" t="n">
-        <v>1449.81520303936</v>
+        <v>1449.815203039369</v>
       </c>
       <c r="R40" t="n">
-        <v>1417.423903440813</v>
+        <v>1417.423903440821</v>
       </c>
       <c r="S40" t="n">
-        <v>1316.079160005401</v>
+        <v>1316.079160005409</v>
       </c>
       <c r="T40" t="n">
-        <v>1192.988691013321</v>
+        <v>1192.988691013328</v>
       </c>
       <c r="U40" t="n">
-        <v>1015.156934156681</v>
+        <v>1015.156934156688</v>
       </c>
       <c r="V40" t="n">
-        <v>863.7706726943036</v>
+        <v>863.7706726943097</v>
       </c>
       <c r="W40" t="n">
-        <v>686.9633141909026</v>
+        <v>686.9633141909081</v>
       </c>
       <c r="X40" t="n">
-        <v>565.0598930654783</v>
+        <v>565.0598930654833</v>
       </c>
       <c r="Y40" t="n">
-        <v>452.3737772369553</v>
+        <v>452.3737772369597</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1561.759123245951</v>
+        <v>2128.652326665057</v>
       </c>
       <c r="C41" t="n">
-        <v>1182.426003694139</v>
+        <v>1749.319207113244</v>
       </c>
       <c r="D41" t="n">
-        <v>1182.426003694139</v>
+        <v>1749.319207113244</v>
       </c>
       <c r="E41" t="n">
-        <v>790.2409229156265</v>
+        <v>1357.134126334731</v>
       </c>
       <c r="F41" t="n">
-        <v>790.2409229156265</v>
+        <v>945.5835747602816</v>
       </c>
       <c r="G41" t="n">
-        <v>377.1233846501305</v>
+        <v>532.4660364947852</v>
       </c>
       <c r="H41" t="n">
-        <v>50.85391747321462</v>
+        <v>206.1965693178687</v>
       </c>
       <c r="I41" t="n">
         <v>50.85391747321462</v>
@@ -7414,16 +7414,16 @@
         <v>154.9459054532635</v>
       </c>
       <c r="K41" t="n">
-        <v>443.1860302481636</v>
+        <v>443.1860302481634</v>
       </c>
       <c r="L41" t="n">
-        <v>850.7433998907121</v>
+        <v>850.7433998907119</v>
       </c>
       <c r="M41" t="n">
         <v>1310.379159876956</v>
       </c>
       <c r="N41" t="n">
-        <v>1756.181478599933</v>
+        <v>1756.181478599932</v>
       </c>
       <c r="O41" t="n">
         <v>2124.896977382889</v>
@@ -7435,28 +7435,28 @@
         <v>2542.695873660731</v>
       </c>
       <c r="R41" t="n">
-        <v>2478.893311228834</v>
+        <v>2520.095227067695</v>
       </c>
       <c r="S41" t="n">
-        <v>2303.056601320533</v>
+        <v>2520.095227067695</v>
       </c>
       <c r="T41" t="n">
-        <v>2256.072049261647</v>
+        <v>2520.095227067695</v>
       </c>
       <c r="U41" t="n">
-        <v>2256.072049261647</v>
+        <v>2520.095227067695</v>
       </c>
       <c r="V41" t="n">
-        <v>1921.693414272969</v>
+        <v>2520.095227067695</v>
       </c>
       <c r="W41" t="n">
-        <v>1561.759123245951</v>
+        <v>2520.095227067695</v>
       </c>
       <c r="X41" t="n">
-        <v>1561.759123245951</v>
+        <v>2520.095227067695</v>
       </c>
       <c r="Y41" t="n">
-        <v>1561.759123245951</v>
+        <v>2520.095227067695</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J42" t="n">
-        <v>130.2226992162549</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K42" t="n">
-        <v>392.3832078845233</v>
+        <v>68.10001809715379</v>
       </c>
       <c r="L42" t="n">
-        <v>551.8130463809138</v>
+        <v>477.8506509775796</v>
       </c>
       <c r="M42" t="n">
-        <v>1088.109223162014</v>
+        <v>1014.14682775868</v>
       </c>
       <c r="N42" t="n">
-        <v>1651.994466950699</v>
+        <v>1578.032071547365</v>
       </c>
       <c r="O42" t="n">
-        <v>2044.19441773485</v>
+        <v>2018.368674122672</v>
       </c>
       <c r="P42" t="n">
-        <v>2384.924243875136</v>
+        <v>2359.098500262958</v>
       </c>
       <c r="Q42" t="n">
         <v>2542.69587366073</v>
@@ -7572,40 +7572,40 @@
         <v>50.85391747321462</v>
       </c>
       <c r="K43" t="n">
-        <v>106.7133799860796</v>
+        <v>106.713379986079</v>
       </c>
       <c r="L43" t="n">
-        <v>235.0867382264543</v>
+        <v>235.0867382264532</v>
       </c>
       <c r="M43" t="n">
-        <v>382.2173353429999</v>
+        <v>382.2173353429981</v>
       </c>
       <c r="N43" t="n">
-        <v>529.1445600039066</v>
+        <v>529.1445600039043</v>
       </c>
       <c r="O43" t="n">
-        <v>654.1316567773315</v>
+        <v>654.1316567773285</v>
       </c>
       <c r="P43" t="n">
-        <v>740.16340803633</v>
+        <v>740.1634080363265</v>
       </c>
       <c r="Q43" t="n">
-        <v>740.16340803633</v>
+        <v>740.1634080363265</v>
       </c>
       <c r="R43" t="n">
-        <v>740.16340803633</v>
+        <v>740.1634080363265</v>
       </c>
       <c r="S43" t="n">
-        <v>740.16340803633</v>
+        <v>532.0702607370956</v>
       </c>
       <c r="T43" t="n">
-        <v>740.16340803633</v>
+        <v>532.0702607370956</v>
       </c>
       <c r="U43" t="n">
-        <v>455.5832473158708</v>
+        <v>247.4901000166358</v>
       </c>
       <c r="V43" t="n">
-        <v>197.4485819896742</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="W43" t="n">
         <v>50.85391747321462</v>
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1425.933121960633</v>
+        <v>1282.022481703994</v>
       </c>
       <c r="C44" t="n">
-        <v>1245.745332970555</v>
+        <v>902.6893621521814</v>
       </c>
       <c r="D44" t="n">
-        <v>875.5220073131595</v>
+        <v>532.4660364947852</v>
       </c>
       <c r="E44" t="n">
-        <v>875.5220073131595</v>
+        <v>532.4660364947852</v>
       </c>
       <c r="F44" t="n">
-        <v>463.9714557387106</v>
+        <v>532.4660364947852</v>
       </c>
       <c r="G44" t="n">
-        <v>50.85391747321462</v>
+        <v>532.4660364947852</v>
       </c>
       <c r="H44" t="n">
-        <v>50.85391747321462</v>
+        <v>206.1965693178687</v>
       </c>
       <c r="I44" t="n">
         <v>50.85391747321462</v>
@@ -7672,28 +7672,28 @@
         <v>2542.695873660731</v>
       </c>
       <c r="R44" t="n">
-        <v>2542.695873660731</v>
+        <v>2478.893311228834</v>
       </c>
       <c r="S44" t="n">
-        <v>2542.695873660731</v>
+        <v>2478.893311228834</v>
       </c>
       <c r="T44" t="n">
-        <v>2542.695873660731</v>
+        <v>2478.893311228834</v>
       </c>
       <c r="U44" t="n">
-        <v>2542.695873660731</v>
+        <v>2478.893311228834</v>
       </c>
       <c r="V44" t="n">
-        <v>2208.317238672053</v>
+        <v>2412.327490402921</v>
       </c>
       <c r="W44" t="n">
-        <v>2208.317238672053</v>
+        <v>2052.393199375902</v>
       </c>
       <c r="X44" t="n">
-        <v>2208.317238672053</v>
+        <v>1672.963698012776</v>
       </c>
       <c r="Y44" t="n">
-        <v>1817.376022363272</v>
+        <v>1282.022481703994</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>920.8593958421045</v>
+        <v>920.8593958421037</v>
       </c>
       <c r="C45" t="n">
-        <v>759.1557230830592</v>
+        <v>759.1557230830585</v>
       </c>
       <c r="D45" t="n">
-        <v>620.3170860732713</v>
+        <v>620.3170860732707</v>
       </c>
       <c r="E45" t="n">
-        <v>473.2890761301425</v>
+        <v>473.2890761301419</v>
       </c>
       <c r="F45" t="n">
-        <v>338.5952780800169</v>
+        <v>338.5952780800162</v>
       </c>
       <c r="G45" t="n">
-        <v>210.0732042050874</v>
+        <v>210.0732042050868</v>
       </c>
       <c r="H45" t="n">
-        <v>112.1289883137705</v>
+        <v>112.1289883137699</v>
       </c>
       <c r="I45" t="n">
-        <v>50.85391747321523</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J45" t="n">
-        <v>130.2226992162555</v>
+        <v>111.1080640063208</v>
       </c>
       <c r="K45" t="n">
-        <v>392.3832078845239</v>
+        <v>373.2685726745892</v>
       </c>
       <c r="L45" t="n">
-        <v>802.1338407649497</v>
+        <v>752.7015289055038</v>
       </c>
       <c r="M45" t="n">
-        <v>1338.43001754605</v>
+        <v>1288.997705686604</v>
       </c>
       <c r="N45" t="n">
-        <v>1902.315261334735</v>
+        <v>1800.263351809726</v>
       </c>
       <c r="O45" t="n">
-        <v>2018.368674122672</v>
+        <v>2240.599954385033</v>
       </c>
       <c r="P45" t="n">
-        <v>2359.098500262959</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="Q45" t="n">
         <v>2542.695873660731</v>
@@ -7754,19 +7754,19 @@
         <v>2495.728130619192</v>
       </c>
       <c r="S45" t="n">
-        <v>2346.762917934842</v>
+        <v>2346.762917934841</v>
       </c>
       <c r="T45" t="n">
-        <v>2158.909856151447</v>
+        <v>2158.909856151446</v>
       </c>
       <c r="U45" t="n">
-        <v>1940.428644414348</v>
+        <v>1940.428644414347</v>
       </c>
       <c r="V45" t="n">
-        <v>1712.033021862682</v>
+        <v>1712.033021862681</v>
       </c>
       <c r="W45" t="n">
-        <v>1470.717153095992</v>
+        <v>1470.717153095991</v>
       </c>
       <c r="X45" t="n">
         <v>1272.800164973786</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>50.85391747321462</v>
+        <v>372.2333053510991</v>
       </c>
       <c r="C46" t="n">
-        <v>50.85391747321462</v>
+        <v>372.2333053510991</v>
       </c>
       <c r="D46" t="n">
-        <v>50.85391747321462</v>
+        <v>372.2333053510991</v>
       </c>
       <c r="E46" t="n">
-        <v>50.85391747321462</v>
+        <v>372.2333053510991</v>
       </c>
       <c r="F46" t="n">
-        <v>50.85391747321462</v>
+        <v>372.2333053510991</v>
       </c>
       <c r="G46" t="n">
-        <v>50.85391747321462</v>
+        <v>206.0872565437645</v>
       </c>
       <c r="H46" t="n">
         <v>50.85391747321462</v>
@@ -7809,49 +7809,49 @@
         <v>50.85391747321462</v>
       </c>
       <c r="K46" t="n">
-        <v>106.7133799860795</v>
+        <v>106.713379986079</v>
       </c>
       <c r="L46" t="n">
-        <v>235.0867382264542</v>
+        <v>235.0867382264532</v>
       </c>
       <c r="M46" t="n">
-        <v>382.2173353429997</v>
+        <v>382.2173353429981</v>
       </c>
       <c r="N46" t="n">
-        <v>529.1445600039063</v>
+        <v>529.1445600039043</v>
       </c>
       <c r="O46" t="n">
-        <v>654.1316567773312</v>
+        <v>654.1316567773285</v>
       </c>
       <c r="P46" t="n">
-        <v>740.1634080363297</v>
+        <v>740.1634080363265</v>
       </c>
       <c r="Q46" t="n">
-        <v>718.7181803018269</v>
+        <v>740.1634080363265</v>
       </c>
       <c r="R46" t="n">
-        <v>579.5784768394602</v>
+        <v>601.0237045739592</v>
       </c>
       <c r="S46" t="n">
-        <v>579.5784768394602</v>
+        <v>601.0237045739592</v>
       </c>
       <c r="T46" t="n">
-        <v>579.5784768394602</v>
+        <v>601.0237045739592</v>
       </c>
       <c r="U46" t="n">
-        <v>334.4096798404348</v>
+        <v>591.6678250434418</v>
       </c>
       <c r="V46" t="n">
-        <v>334.4096798404348</v>
+        <v>591.6678250434418</v>
       </c>
       <c r="W46" t="n">
-        <v>50.85391747321462</v>
+        <v>591.6678250434418</v>
       </c>
       <c r="X46" t="n">
-        <v>50.85391747321462</v>
+        <v>591.6678250434418</v>
       </c>
       <c r="Y46" t="n">
-        <v>50.85391747321462</v>
+        <v>372.2333053510991</v>
       </c>
     </row>
   </sheetData>
@@ -8063,13 +8063,13 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L3" t="n">
-        <v>112.5754335711478</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M3" t="n">
-        <v>605.4165828749999</v>
+        <v>315.5450020690959</v>
       </c>
       <c r="N3" t="n">
-        <v>543.4252385523532</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O3" t="n">
         <v>512.0210150597484</v>
@@ -8078,7 +8078,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q3" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8309,13 +8309,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O6" t="n">
-        <v>512.0210150597484</v>
+        <v>367.9315448499079</v>
       </c>
       <c r="P6" t="n">
-        <v>124.1300184260142</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q6" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8531,7 +8531,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
         <v>343.8048081163522</v>
@@ -8543,16 +8543,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N9" t="n">
-        <v>623.1450866466196</v>
+        <v>234.7709975048689</v>
       </c>
       <c r="O9" t="n">
-        <v>115.8594486111111</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P9" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q9" t="n">
-        <v>220.0251770876257</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8780,13 +8780,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
-        <v>348.7374178367141</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>414.0015992319183</v>
+        <v>248.2337605629514</v>
       </c>
       <c r="Q12" t="n">
         <v>273.1004740566038</v>
@@ -9011,7 +9011,7 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
-        <v>154.5336713314974</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
         <v>605.4165828749999</v>
@@ -9020,7 +9020,7 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O15" t="n">
-        <v>512.0210150597484</v>
+        <v>499.8077953075403</v>
       </c>
       <c r="P15" t="n">
         <v>414.0015992319183</v>
@@ -9248,7 +9248,7 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
-        <v>193.5578196795676</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
         <v>605.4165828749999</v>
@@ -9263,7 +9263,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9479,7 +9479,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>83.74785933339987</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K21" t="n">
         <v>343.8048081163522</v>
@@ -9497,10 +9497,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P21" t="n">
-        <v>238.6374122908472</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>273.1004740566038</v>
+        <v>168.1954096635004</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9728,7 +9728,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>578.5618229963929</v>
+        <v>510.5283567307451</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -9737,7 +9737,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>87.64858173562192</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9953,13 +9953,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K27" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L27" t="n">
-        <v>154.5336713314974</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M27" t="n">
         <v>605.4165828749999</v>
@@ -10202,7 +10202,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>344.2091896807477</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10211,7 +10211,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10427,16 +10427,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K33" t="n">
-        <v>343.8048081163522</v>
+        <v>129.4164728272113</v>
       </c>
       <c r="L33" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
-        <v>368.6625832266094</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
         <v>623.1450866466196</v>
@@ -10664,13 +10664,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K36" t="n">
-        <v>343.8048081163522</v>
+        <v>129.4164728272113</v>
       </c>
       <c r="L36" t="n">
-        <v>285.0572485880152</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M36" t="n">
         <v>605.4165828749999</v>
@@ -10901,10 +10901,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K39" t="n">
-        <v>78.99621350193966</v>
+        <v>129.4164728272113</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
@@ -10919,7 +10919,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P39" t="n">
-        <v>351.2514162833314</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
         <v>273.1004740566038</v>
@@ -11138,13 +11138,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K42" t="n">
-        <v>343.8048081163522</v>
+        <v>129.4164728272113</v>
       </c>
       <c r="L42" t="n">
-        <v>273.6156744765927</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M42" t="n">
         <v>605.4165828749999</v>
@@ -11390,13 +11390,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O45" t="n">
-        <v>184.4622374967487</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23260,19 +23260,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>146.7226474676245</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>285.1569428697733</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>229.5568117714554</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>114.7624461578086</v>
       </c>
       <c r="U11" t="n">
         <v>146.6250070121021</v>
@@ -23320,7 +23320,7 @@
         <v>227.9285615378371</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>253.228661015794</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23500,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>263.4148052998677</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>219.9004854041928</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>50.68293822525306</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>70.97205570826425</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>114.7624461578086</v>
       </c>
       <c r="U14" t="n">
-        <v>100.0719567052207</v>
+        <v>127.0693219137614</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23743,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>304.3287589577504</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>84.48108344703965</v>
+        <v>219.9004854041928</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>50.68293822525307</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>70.97205570826426</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>114.7624461578086</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>146.6250070121021</v>
       </c>
       <c r="V17" t="n">
         <v>227.9285615378371</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>58.39582914570892</v>
       </c>
       <c r="X17" t="n">
-        <v>272.5289192485407</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23974,22 +23974,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>263.4148052998677</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>304.3287589577504</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>219.9004854041928</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>50.6829382252531</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>70.97205570826429</v>
       </c>
       <c r="T20" t="n">
-        <v>37.59824188881029</v>
+        <v>114.7624461578086</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>146.6250070121021</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>227.9285615378371</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>58.39582914570937</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>283.9255170447394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24211,13 +24211,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>263.4148052998677</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>285.1569428697733</v>
       </c>
       <c r="F23" t="n">
-        <v>122.6644968720582</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>305.880075781887</v>
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>50.68293822525309</v>
+        <v>50.6829382252531</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,19 +24256,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>70.97205570826428</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>114.7624461578086</v>
       </c>
       <c r="U23" t="n">
-        <v>146.6250070121021</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>61.81286444818141</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24448,22 +24448,22 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>167.7301335918699</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>304.3287589577504</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>219.9004854041928</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>50.68293822525312</v>
+        <v>50.6829382252531</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>54.20138713479719</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>146.6250070121021</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>227.9285615378371</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>272.5289192485407</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>283.9255170447394</v>
       </c>
     </row>
     <row r="27">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>228.8095656553792</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24688,19 +24688,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>285.1569428697732</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>304.3287589577504</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>25.06765353410813</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>50.6829382252531</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.97205570826422</v>
+        <v>70.97205570826428</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>114.7624461578086</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>146.6250070121021</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>227.9285615378371</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>253.228661015794</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24922,22 +24922,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>260.8401725756407</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>282.5823101455463</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>303.30544305766</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>48.10830550102666</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>68.39742298403783</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>144.0503742878757</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>225.3539288136107</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>250.6540282915676</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>114.0837724496525</v>
       </c>
       <c r="Y32" t="n">
-        <v>3.919906548915947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25159,19 +25159,19 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>260.8401725756407</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>69.17636401449653</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>301.754126233524</v>
       </c>
       <c r="G35" t="n">
-        <v>303.3054430576601</v>
+        <v>303.3054430576606</v>
       </c>
       <c r="H35" t="n">
-        <v>217.3258526799658</v>
+        <v>65.0030266189662</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>68.39742298403783</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>112.1878134335822</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>269.8588685311128</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25402,16 +25402,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>301.7541262335235</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>103.6215576117096</v>
       </c>
       <c r="H38" t="n">
-        <v>217.3258526799658</v>
+        <v>217.3258526799664</v>
       </c>
       <c r="I38" t="n">
-        <v>48.10830550102612</v>
+        <v>48.10830550102666</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>13.60067938213484</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>112.1878134335822</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>144.0503742878757</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>225.3539288136107</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>387.5284713986119</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>366.5210924008217</v>
+        <v>366.5210924008222</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>407.4350460587044</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>153.789225326207</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>40.78989668047292</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.0783428092188</v>
       </c>
       <c r="T41" t="n">
-        <v>171.3540267204654</v>
+        <v>217.8687332587631</v>
       </c>
       <c r="U41" t="n">
-        <v>249.731294113056</v>
+        <v>249.7312941130566</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>331.0348486387916</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>356.3349481167485</v>
       </c>
       <c r="X41" t="n">
-        <v>375.6352063494946</v>
+        <v>375.6352063494951</v>
       </c>
       <c r="Y41" t="n">
-        <v>387.0318041456933</v>
+        <v>387.0318041456939</v>
       </c>
     </row>
     <row r="42">
@@ -25785,31 +25785,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.145182273309</v>
+        <v>179.1451822733096</v>
       </c>
       <c r="C43" t="n">
-        <v>165.3451771187095</v>
+        <v>165.3451771187101</v>
       </c>
       <c r="D43" t="n">
-        <v>148.9665415162879</v>
+        <v>148.9665415162885</v>
       </c>
       <c r="E43" t="n">
-        <v>147.9142913720673</v>
+        <v>147.9142913720679</v>
       </c>
       <c r="F43" t="n">
-        <v>148.3812157002536</v>
+        <v>148.3812157002542</v>
       </c>
       <c r="G43" t="n">
-        <v>164.4845883192607</v>
+        <v>164.4845883192613</v>
       </c>
       <c r="H43" t="n">
-        <v>153.6810056798438</v>
+        <v>153.6810056798444</v>
       </c>
       <c r="I43" t="n">
-        <v>135.0340177878184</v>
+        <v>135.034017787819</v>
       </c>
       <c r="J43" t="n">
-        <v>44.76899524024863</v>
+        <v>44.76899524024921</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,31 +25830,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>21.23077545715764</v>
+        <v>21.23077545715822</v>
       </c>
       <c r="R43" t="n">
-        <v>137.748306427743</v>
+        <v>137.7483064277436</v>
       </c>
       <c r="S43" t="n">
-        <v>206.0122158262379</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>227.5404841273403</v>
+        <v>227.5404841273409</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>60.88349795494818</v>
       </c>
       <c r="W43" t="n">
-        <v>135.5914868722529</v>
+        <v>280.7202047435484</v>
       </c>
       <c r="X43" t="n">
-        <v>226.365306739351</v>
+        <v>226.3653067393516</v>
       </c>
       <c r="Y43" t="n">
-        <v>217.2401744954187</v>
+        <v>217.2401744954192</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>387.5284713986125</v>
       </c>
       <c r="C44" t="n">
-        <v>197.1538772561164</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>388.2632299707273</v>
+        <v>388.2632299707278</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>407.4350460587049</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>408.9863628828415</v>
       </c>
       <c r="H44" t="n">
-        <v>323.0067725051468</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>153.7892253262071</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,25 +25912,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>63.16453680757749</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.0783428092182</v>
+        <v>174.0783428092188</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8687332587626</v>
+        <v>217.8687332587631</v>
       </c>
       <c r="U44" t="n">
-        <v>249.7312941130561</v>
+        <v>249.7312941130566</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>265.1346860211379</v>
       </c>
       <c r="W44" t="n">
-        <v>356.334948116748</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>375.6352063494946</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,31 +26022,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.1451822733091</v>
+        <v>179.1451822733096</v>
       </c>
       <c r="C46" t="n">
-        <v>165.3451771187096</v>
+        <v>165.3451771187101</v>
       </c>
       <c r="D46" t="n">
-        <v>148.9665415162879</v>
+        <v>148.9665415162885</v>
       </c>
       <c r="E46" t="n">
-        <v>147.9142913720674</v>
+        <v>147.9142913720679</v>
       </c>
       <c r="F46" t="n">
-        <v>148.3812157002537</v>
+        <v>148.3812157002542</v>
       </c>
       <c r="G46" t="n">
-        <v>164.4845883192608</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>153.6810056798439</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>135.0340177878185</v>
+        <v>135.034017787819</v>
       </c>
       <c r="J46" t="n">
-        <v>44.7689952402487</v>
+        <v>44.76899524024921</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,31 +26067,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>21.23077545715822</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>206.012215826238</v>
+        <v>206.0122158262385</v>
       </c>
       <c r="T46" t="n">
-        <v>227.5404841273404</v>
+        <v>227.5404841273409</v>
       </c>
       <c r="U46" t="n">
-        <v>39.01725008421946</v>
+        <v>272.4720383780429</v>
       </c>
       <c r="V46" t="n">
-        <v>255.5533186729347</v>
+        <v>255.5533186729352</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.7202047435484</v>
       </c>
       <c r="X46" t="n">
-        <v>226.365306739351</v>
+        <v>226.3653067393516</v>
       </c>
       <c r="Y46" t="n">
-        <v>217.2401744954187</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>609733.5838721442</v>
+        <v>609733.5838721445</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>609733.5838721442</v>
+        <v>609733.5838721445</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>612423.4314107804</v>
+        <v>612423.4314107799</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>612423.4314107804</v>
+        <v>612423.4314107799</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>612423.4314107804</v>
+        <v>612423.4314107799</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>445965.4353707557</v>
+        <v>445965.4353707548</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>445965.4353707556</v>
+        <v>445965.4353707549</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>671671.0529324091</v>
+        <v>671671.0529324092</v>
       </c>
       <c r="C2" t="n">
-        <v>671671.0529324091</v>
+        <v>671671.0529324093</v>
       </c>
       <c r="D2" t="n">
-        <v>671671.0529324096</v>
+        <v>671671.052932409</v>
       </c>
       <c r="E2" t="n">
-        <v>609733.5838721454</v>
+        <v>609733.5838721455</v>
       </c>
       <c r="F2" t="n">
-        <v>609733.583872144</v>
+        <v>609733.5838721443</v>
       </c>
       <c r="G2" t="n">
-        <v>609733.583872144</v>
+        <v>609733.5838721445</v>
       </c>
       <c r="H2" t="n">
         <v>609733.5838721442</v>
       </c>
       <c r="I2" t="n">
+        <v>609733.5838721443</v>
+      </c>
+      <c r="J2" t="n">
+        <v>609733.5838721454</v>
+      </c>
+      <c r="K2" t="n">
         <v>609733.583872144</v>
       </c>
-      <c r="J2" t="n">
-        <v>609733.5838721441</v>
-      </c>
-      <c r="K2" t="n">
-        <v>609733.5838721441</v>
-      </c>
       <c r="L2" t="n">
-        <v>612423.4314107801</v>
+        <v>612423.4314107805</v>
       </c>
       <c r="M2" t="n">
-        <v>612423.4314107802</v>
+        <v>612423.4314107805</v>
       </c>
       <c r="N2" t="n">
-        <v>612423.4314107801</v>
+        <v>612423.4314107804</v>
       </c>
       <c r="O2" t="n">
-        <v>445965.4353707549</v>
+        <v>445965.4353707539</v>
       </c>
       <c r="P2" t="n">
-        <v>445965.435370755</v>
+        <v>445965.435370754</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>193830.6025094459</v>
+        <v>193830.6025094461</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2059.706179381556</v>
+        <v>2059.706179381146</v>
       </c>
       <c r="M3" t="n">
-        <v>27504.83665689654</v>
+        <v>27504.83665689659</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185775.7593332932</v>
+        <v>185775.7593332931</v>
       </c>
       <c r="C4" t="n">
         <v>185775.7593332931</v>
@@ -26426,7 +26426,7 @@
         <v>185775.7593332932</v>
       </c>
       <c r="E4" t="n">
-        <v>110264.6947177723</v>
+        <v>110264.6947177722</v>
       </c>
       <c r="F4" t="n">
         <v>110264.6947177723</v>
@@ -26447,19 +26447,19 @@
         <v>110264.6947177723</v>
       </c>
       <c r="L4" t="n">
-        <v>112006.325780244</v>
+        <v>112006.3257802436</v>
       </c>
       <c r="M4" t="n">
-        <v>112006.325780244</v>
+        <v>112006.3257802436</v>
       </c>
       <c r="N4" t="n">
-        <v>112006.325780244</v>
+        <v>112006.3257802436</v>
       </c>
       <c r="O4" t="n">
-        <v>3203.69504624173</v>
+        <v>3203.695046241115</v>
       </c>
       <c r="P4" t="n">
-        <v>3203.695046241656</v>
+        <v>3203.695046241115</v>
       </c>
     </row>
     <row r="5">
@@ -26478,13 +26478,13 @@
         <v>65566.03463691141</v>
       </c>
       <c r="E5" t="n">
-        <v>49604.69171108781</v>
+        <v>49604.69171108783</v>
       </c>
       <c r="F5" t="n">
-        <v>49604.69171108781</v>
+        <v>49604.69171108783</v>
       </c>
       <c r="G5" t="n">
-        <v>49604.69171108781</v>
+        <v>49604.69171108783</v>
       </c>
       <c r="H5" t="n">
         <v>49604.69171108781</v>
@@ -26496,22 +26496,22 @@
         <v>49604.69171108781</v>
       </c>
       <c r="K5" t="n">
-        <v>49604.69171108782</v>
+        <v>49604.69171108781</v>
       </c>
       <c r="L5" t="n">
-        <v>49821.13850958086</v>
+        <v>49821.13850958081</v>
       </c>
       <c r="M5" t="n">
-        <v>49821.13850958085</v>
+        <v>49821.13850958081</v>
       </c>
       <c r="N5" t="n">
-        <v>49821.13850958085</v>
+        <v>49821.13850958081</v>
       </c>
       <c r="O5" t="n">
-        <v>40936.64926079772</v>
+        <v>40936.64926079767</v>
       </c>
       <c r="P5" t="n">
-        <v>40936.64926079772</v>
+        <v>40936.64926079767</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>244288.0742446772</v>
+        <v>244288.0742446773</v>
       </c>
       <c r="C6" t="n">
-        <v>420329.2589622046</v>
+        <v>420329.2589622048</v>
       </c>
       <c r="D6" t="n">
-        <v>420329.258962205</v>
+        <v>420329.2589622044</v>
       </c>
       <c r="E6" t="n">
-        <v>256033.5949338394</v>
+        <v>254263.9529606889</v>
       </c>
       <c r="F6" t="n">
-        <v>449864.1974432839</v>
+        <v>448094.5554701338</v>
       </c>
       <c r="G6" t="n">
-        <v>449864.1974432839</v>
+        <v>448094.5554701339</v>
       </c>
       <c r="H6" t="n">
-        <v>449864.1974432841</v>
+        <v>448094.5554701337</v>
       </c>
       <c r="I6" t="n">
-        <v>449864.1974432839</v>
+        <v>448094.5554701338</v>
       </c>
       <c r="J6" t="n">
-        <v>227877.0307913622</v>
+        <v>226107.388818213</v>
       </c>
       <c r="K6" t="n">
-        <v>449864.197443284</v>
+        <v>448094.5554701334</v>
       </c>
       <c r="L6" t="n">
-        <v>448536.2609415737</v>
+        <v>446843.4717552427</v>
       </c>
       <c r="M6" t="n">
-        <v>423091.1304640588</v>
+        <v>421398.3412777272</v>
       </c>
       <c r="N6" t="n">
-        <v>450595.9671209552</v>
+        <v>448903.1779346237</v>
       </c>
       <c r="O6" t="n">
-        <v>401825.0910637154</v>
+        <v>395376.3591333822</v>
       </c>
       <c r="P6" t="n">
-        <v>401825.0910637156</v>
+        <v>395376.3591333823</v>
       </c>
     </row>
   </sheetData>
@@ -26712,22 +26712,22 @@
         <v>105.6809198251809</v>
       </c>
       <c r="K2" t="n">
-        <v>105.680919825181</v>
+        <v>105.6809198251809</v>
       </c>
       <c r="L2" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="M2" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="N2" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="O2" t="n">
-        <v>2.574632724227016</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="P2" t="n">
-        <v>2.574632724226944</v>
+        <v>2.574632724226433</v>
       </c>
     </row>
     <row r="3">
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>95.01032947988872</v>
+        <v>95.0103294798889</v>
       </c>
       <c r="F3" t="n">
-        <v>95.01032947988872</v>
+        <v>95.0103294798889</v>
       </c>
       <c r="G3" t="n">
-        <v>95.01032947988872</v>
+        <v>95.0103294798889</v>
       </c>
       <c r="H3" t="n">
-        <v>95.01032947988872</v>
+        <v>95.01032947988871</v>
       </c>
       <c r="I3" t="n">
         <v>95.01032947988872</v>
@@ -26798,13 +26798,13 @@
         <v>525.3032012649903</v>
       </c>
       <c r="E4" t="n">
-        <v>635.6739684151827</v>
+        <v>635.6739684151829</v>
       </c>
       <c r="F4" t="n">
-        <v>635.6739684151827</v>
+        <v>635.6739684151828</v>
       </c>
       <c r="G4" t="n">
-        <v>635.6739684151827</v>
+        <v>635.6739684151828</v>
       </c>
       <c r="H4" t="n">
         <v>635.6739684151827</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.574632724226946</v>
+        <v>2.574632724226432</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>95.01032947988872</v>
+        <v>95.0103294798889</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>110.3707671501924</v>
+        <v>110.3707671501926</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>525.3032012649904</v>
+        <v>525.3032012649903</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>110.3707671501924</v>
+        <v>110.3707671501926</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>110.3707671501924</v>
+        <v>110.3707671501926</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,10 +27393,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>163.995560049517</v>
+        <v>100.3958108797887</v>
       </c>
       <c r="H2" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27478,7 +27478,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>176.7061603308782</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27520,13 +27520,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>64.68833892469858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>25.11865220031675</v>
       </c>
       <c r="C4" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>151.5411742405149</v>
@@ -27554,13 +27554,13 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I4" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
-        <v>24.33274594293113</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
         <v>230.8471636524779</v>
@@ -27621,13 +27621,13 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>17.74138954355845</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
-        <v>178.4368532167705</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="6">
@@ -27694,13 +27694,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>116.7715249917833</v>
       </c>
       <c r="E6" t="n">
         <v>145.5577298436975</v>
@@ -27715,7 +27715,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>18.13270285433866</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D7" t="n">
         <v>151.5411742405149</v>
@@ -27824,7 +27824,7 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S7" t="n">
-        <v>34.47363701734875</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
         <v>230.8471636524779</v>
@@ -27833,16 +27833,16 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
-        <v>258.1279513971616</v>
+        <v>234.4989432911091</v>
       </c>
       <c r="W7" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y7" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,16 +27855,16 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805207</v>
+        <v>270.9443998791342</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>121.6946873783668</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
         <v>389.6064368699203</v>
@@ -27931,28 +27931,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>26.24018205834609</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>9.32100987217845</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C10" t="n">
-        <v>42.71577926664513</v>
+        <v>160.4468403547605</v>
       </c>
       <c r="D10" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>150.9558484244806</v>
@@ -28028,13 +28028,13 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="11">
@@ -28137,7 +28137,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.73916953180444</v>
+        <v>65.73916953180439</v>
       </c>
       <c r="S11" t="n">
         <v>105.6809198251809</v>
@@ -28374,7 +28374,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.73916953180444</v>
+        <v>65.73916953180439</v>
       </c>
       <c r="S14" t="n">
         <v>105.6809198251809</v>
@@ -28611,7 +28611,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.73916953180444</v>
+        <v>65.73916953180439</v>
       </c>
       <c r="S17" t="n">
         <v>105.6809198251809</v>
@@ -28748,7 +28748,7 @@
         <v>105.6809198251809</v>
       </c>
       <c r="K19" t="n">
-        <v>105.6809198251814</v>
+        <v>105.6809198251809</v>
       </c>
       <c r="L19" t="n">
         <v>105.6809198251809</v>
@@ -28991,7 +28991,7 @@
         <v>105.6809198251809</v>
       </c>
       <c r="M22" t="n">
-        <v>105.6809198251809</v>
+        <v>105.6809198251813</v>
       </c>
       <c r="N22" t="n">
         <v>105.6809198251809</v>
@@ -29222,13 +29222,13 @@
         <v>105.6809198251809</v>
       </c>
       <c r="K25" t="n">
-        <v>105.6809198251811</v>
+        <v>105.6809198251809</v>
       </c>
       <c r="L25" t="n">
         <v>105.6809198251809</v>
       </c>
       <c r="M25" t="n">
-        <v>105.6809198251809</v>
+        <v>105.6809198251813</v>
       </c>
       <c r="N25" t="n">
         <v>105.6809198251809</v>
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>105.680919825181</v>
+        <v>105.6809198251809</v>
       </c>
       <c r="C29" t="n">
-        <v>105.680919825181</v>
+        <v>105.6809198251809</v>
       </c>
       <c r="D29" t="n">
-        <v>105.680919825181</v>
+        <v>105.6809198251809</v>
       </c>
       <c r="E29" t="n">
-        <v>105.680919825181</v>
+        <v>105.6809198251809</v>
       </c>
       <c r="F29" t="n">
-        <v>105.680919825181</v>
+        <v>105.6809198251809</v>
       </c>
       <c r="G29" t="n">
-        <v>105.680919825181</v>
+        <v>105.6809198251809</v>
       </c>
       <c r="H29" t="n">
-        <v>105.680919825181</v>
+        <v>105.6809198251809</v>
       </c>
       <c r="I29" t="n">
-        <v>105.680919825181</v>
+        <v>105.6809198251809</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>65.73916953180444</v>
       </c>
       <c r="S29" t="n">
-        <v>105.680919825181</v>
+        <v>105.6809198251809</v>
       </c>
       <c r="T29" t="n">
-        <v>105.680919825181</v>
+        <v>105.6809198251809</v>
       </c>
       <c r="U29" t="n">
-        <v>105.680919825181</v>
+        <v>105.6809198251809</v>
       </c>
       <c r="V29" t="n">
-        <v>105.680919825181</v>
+        <v>105.6809198251809</v>
       </c>
       <c r="W29" t="n">
-        <v>105.680919825181</v>
+        <v>105.6809198251809</v>
       </c>
       <c r="X29" t="n">
-        <v>105.680919825181</v>
+        <v>105.6809198251809</v>
       </c>
       <c r="Y29" t="n">
-        <v>105.680919825181</v>
+        <v>105.6809198251809</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>105.680919825181</v>
+        <v>105.6809198251809</v>
       </c>
       <c r="C31" t="n">
-        <v>105.680919825181</v>
+        <v>105.6809198251809</v>
       </c>
       <c r="D31" t="n">
-        <v>105.680919825181</v>
+        <v>105.6809198251809</v>
       </c>
       <c r="E31" t="n">
-        <v>105.680919825181</v>
+        <v>105.6809198251809</v>
       </c>
       <c r="F31" t="n">
-        <v>105.680919825181</v>
+        <v>105.6809198251809</v>
       </c>
       <c r="G31" t="n">
-        <v>105.680919825181</v>
+        <v>105.6809198251809</v>
       </c>
       <c r="H31" t="n">
-        <v>105.680919825181</v>
+        <v>105.6809198251809</v>
       </c>
       <c r="I31" t="n">
-        <v>105.680919825181</v>
+        <v>105.6809198251809</v>
       </c>
       <c r="J31" t="n">
-        <v>105.680919825181</v>
+        <v>105.6809198251809</v>
       </c>
       <c r="K31" t="n">
-        <v>105.680919825181</v>
+        <v>105.6809198251809</v>
       </c>
       <c r="L31" t="n">
-        <v>105.680919825181</v>
+        <v>105.6809198251809</v>
       </c>
       <c r="M31" t="n">
-        <v>105.680919825181</v>
+        <v>105.6809198251809</v>
       </c>
       <c r="N31" t="n">
-        <v>105.680919825181</v>
+        <v>105.6809198251809</v>
       </c>
       <c r="O31" t="n">
-        <v>105.680919825181</v>
+        <v>105.6809198251809</v>
       </c>
       <c r="P31" t="n">
-        <v>105.680919825181</v>
+        <v>105.6809198251809</v>
       </c>
       <c r="Q31" t="n">
-        <v>105.680919825181</v>
+        <v>105.6809198251809</v>
       </c>
       <c r="R31" t="n">
-        <v>105.680919825181</v>
+        <v>105.6809198251809</v>
       </c>
       <c r="S31" t="n">
-        <v>105.680919825181</v>
+        <v>105.6809198251809</v>
       </c>
       <c r="T31" t="n">
-        <v>105.680919825181</v>
+        <v>105.6809198251809</v>
       </c>
       <c r="U31" t="n">
-        <v>105.680919825181</v>
+        <v>105.6809198251809</v>
       </c>
       <c r="V31" t="n">
-        <v>105.680919825181</v>
+        <v>105.6809198251809</v>
       </c>
       <c r="W31" t="n">
-        <v>105.680919825181</v>
+        <v>105.6809198251809</v>
       </c>
       <c r="X31" t="n">
-        <v>105.680919825181</v>
+        <v>105.6809198251809</v>
       </c>
       <c r="Y31" t="n">
-        <v>105.680919825181</v>
+        <v>105.6809198251809</v>
       </c>
     </row>
     <row r="32">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="C32" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="D32" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="E32" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="F32" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="G32" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="H32" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="I32" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>65.73916953180444</v>
       </c>
       <c r="S32" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="T32" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="U32" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="V32" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="W32" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="X32" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="Y32" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="C34" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="D34" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="E34" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="F34" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="H34" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="I34" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="J34" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="K34" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="L34" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="M34" t="n">
-        <v>45.62795959792248</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="N34" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="O34" t="n">
-        <v>108.2555525494079</v>
+        <v>45.62795959793571</v>
       </c>
       <c r="P34" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="Q34" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="R34" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="S34" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="T34" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="U34" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="V34" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="W34" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="X34" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="Y34" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="C35" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="D35" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="E35" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="F35" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="G35" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="H35" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="I35" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>65.73916953180444</v>
       </c>
       <c r="S35" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="T35" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="U35" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="V35" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="W35" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="X35" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="Y35" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="C37" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="D37" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="E37" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="F37" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="H37" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="I37" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="J37" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="K37" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="L37" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="M37" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="N37" t="n">
-        <v>45.62795959792282</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="O37" t="n">
-        <v>108.2555525494079</v>
+        <v>45.62795959793571</v>
       </c>
       <c r="P37" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="Q37" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="R37" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="S37" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="T37" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="U37" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="V37" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="W37" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="X37" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="Y37" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="C38" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="D38" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="E38" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="F38" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="G38" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="H38" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="I38" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>65.73916953180444</v>
       </c>
       <c r="S38" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="T38" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="U38" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="V38" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="W38" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="X38" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="Y38" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="C40" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="D40" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="E40" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="F40" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="H40" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="I40" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="J40" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="K40" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="L40" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="M40" t="n">
-        <v>45.62795959792294</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="N40" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="O40" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="P40" t="n">
-        <v>108.2555525494079</v>
+        <v>45.6279595979355</v>
       </c>
       <c r="Q40" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="R40" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="S40" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="T40" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="U40" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="V40" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="W40" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="X40" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
       <c r="Y40" t="n">
-        <v>108.2555525494079</v>
+        <v>108.2555525494074</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.574632724227016</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="C41" t="n">
-        <v>2.574632724227016</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="D41" t="n">
-        <v>2.574632724227016</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="E41" t="n">
-        <v>2.574632724227016</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="F41" t="n">
-        <v>2.574632724227016</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="G41" t="n">
-        <v>2.574632724227016</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="H41" t="n">
-        <v>2.574632724227016</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="I41" t="n">
-        <v>2.574632724227016</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30507,28 +30507,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>2.574632724227016</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="S41" t="n">
-        <v>2.574632724227016</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="T41" t="n">
-        <v>2.574632724227016</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="U41" t="n">
-        <v>2.574632724227016</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="V41" t="n">
-        <v>2.574632724227016</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="W41" t="n">
-        <v>2.574632724227016</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="X41" t="n">
-        <v>2.574632724227016</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="Y41" t="n">
-        <v>2.574632724227016</v>
+        <v>2.574632724226433</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.574632724227016</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="C43" t="n">
-        <v>2.574632724227016</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="D43" t="n">
-        <v>2.574632724227016</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="E43" t="n">
-        <v>2.574632724227016</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="F43" t="n">
-        <v>2.574632724227016</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="G43" t="n">
-        <v>2.574632724227016</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="H43" t="n">
-        <v>2.574632724227016</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="I43" t="n">
-        <v>2.574632724227016</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="J43" t="n">
-        <v>2.574632724227016</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="K43" t="n">
-        <v>2.574632724227016</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="L43" t="n">
-        <v>2.574632724227016</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="M43" t="n">
-        <v>2.574632724227016</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="N43" t="n">
-        <v>2.574632724227016</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="O43" t="n">
-        <v>2.574632724227016</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="P43" t="n">
-        <v>2.574632724227016</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.574632724227016</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="R43" t="n">
-        <v>2.574632724227016</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="S43" t="n">
-        <v>2.574632724227016</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="T43" t="n">
-        <v>2.574632724227016</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="U43" t="n">
-        <v>2.574632724227016</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="V43" t="n">
-        <v>2.574632724227016</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="W43" t="n">
-        <v>2.574632724227016</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="X43" t="n">
-        <v>2.574632724227016</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="Y43" t="n">
-        <v>2.574632724227016</v>
+        <v>2.574632724226433</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2.574632724226944</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="C44" t="n">
-        <v>2.574632724226944</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="D44" t="n">
-        <v>2.574632724226944</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="E44" t="n">
-        <v>2.574632724226944</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="F44" t="n">
-        <v>2.574632724226944</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="G44" t="n">
-        <v>2.574632724226944</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="H44" t="n">
-        <v>2.574632724226944</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="I44" t="n">
-        <v>2.574632724226944</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30744,28 +30744,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>2.574632724226944</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="S44" t="n">
-        <v>2.574632724226944</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="T44" t="n">
-        <v>2.574632724226944</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="U44" t="n">
-        <v>2.574632724226944</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="V44" t="n">
-        <v>2.574632724226944</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="W44" t="n">
-        <v>2.574632724226944</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="X44" t="n">
-        <v>2.574632724226944</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="Y44" t="n">
-        <v>2.574632724226944</v>
+        <v>2.574632724226433</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.574632724226944</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="C46" t="n">
-        <v>2.574632724226944</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="D46" t="n">
-        <v>2.574632724226944</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="E46" t="n">
-        <v>2.574632724226944</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="F46" t="n">
-        <v>2.574632724226944</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="G46" t="n">
-        <v>2.574632724226944</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="H46" t="n">
-        <v>2.574632724226944</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="I46" t="n">
-        <v>2.574632724226944</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="J46" t="n">
-        <v>2.574632724226944</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="K46" t="n">
-        <v>2.574632724226944</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="L46" t="n">
-        <v>2.574632724226944</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="M46" t="n">
-        <v>2.574632724226944</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="N46" t="n">
-        <v>2.574632724226944</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="O46" t="n">
-        <v>2.574632724226944</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="P46" t="n">
-        <v>2.574632724226944</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.574632724226944</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="R46" t="n">
-        <v>2.574632724226944</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="S46" t="n">
-        <v>2.574632724226944</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="T46" t="n">
-        <v>2.574632724226944</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="U46" t="n">
-        <v>2.574632724226944</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="V46" t="n">
-        <v>2.574632724226944</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="W46" t="n">
-        <v>2.574632724226944</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="X46" t="n">
-        <v>2.574632724226944</v>
+        <v>2.574632724226433</v>
       </c>
       <c r="Y46" t="n">
-        <v>2.574632724226944</v>
+        <v>2.574632724226433</v>
       </c>
     </row>
   </sheetData>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3819510732859845</v>
+        <v>0.3819510732859852</v>
       </c>
       <c r="H11" t="n">
-        <v>3.91165642929009</v>
+        <v>3.911656429290097</v>
       </c>
       <c r="I11" t="n">
-        <v>14.72516875285793</v>
+        <v>14.72516875285796</v>
       </c>
       <c r="J11" t="n">
-        <v>32.41761990630636</v>
+        <v>32.41761990630642</v>
       </c>
       <c r="K11" t="n">
-        <v>48.5856088385021</v>
+        <v>48.58560883850218</v>
       </c>
       <c r="L11" t="n">
-        <v>60.27474399757806</v>
+        <v>60.27474399757816</v>
       </c>
       <c r="M11" t="n">
-        <v>67.06726639712768</v>
+        <v>67.0672663971278</v>
       </c>
       <c r="N11" t="n">
-        <v>68.1524848841015</v>
+        <v>68.15248488410161</v>
       </c>
       <c r="O11" t="n">
-        <v>64.35445889911398</v>
+        <v>64.35445889911409</v>
       </c>
       <c r="P11" t="n">
-        <v>54.92504177736622</v>
+        <v>54.92504177736632</v>
       </c>
       <c r="Q11" t="n">
-        <v>41.24641896531189</v>
+        <v>41.24641896531197</v>
       </c>
       <c r="R11" t="n">
-        <v>23.99273410730075</v>
+        <v>23.99273410730079</v>
       </c>
       <c r="S11" t="n">
-        <v>8.703710082504381</v>
+        <v>8.703710082504397</v>
       </c>
       <c r="T11" t="n">
-        <v>1.671990823309398</v>
+        <v>1.671990823309401</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03055608586287876</v>
+        <v>0.03055608586287881</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2043618407680625</v>
+        <v>0.2043618407680629</v>
       </c>
       <c r="H12" t="n">
-        <v>1.973705146365236</v>
+        <v>1.97370514636524</v>
       </c>
       <c r="I12" t="n">
-        <v>7.036142324689874</v>
+        <v>7.036142324689886</v>
       </c>
       <c r="J12" t="n">
-        <v>19.30771233326682</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>32.99995566472701</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>44.37251283869709</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>51.78062956653935</v>
+        <v>51.78062956653944</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>53.15110875309369</v>
       </c>
       <c r="O12" t="n">
-        <v>48.62288059712758</v>
+        <v>48.62288059712767</v>
       </c>
       <c r="P12" t="n">
-        <v>39.02414834806977</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>26.08660970927058</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>12.68836060488024</v>
+        <v>12.68836060488026</v>
       </c>
       <c r="S12" t="n">
-        <v>3.795931559880457</v>
+        <v>3.795931559880464</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8237216301133746</v>
+        <v>0.8237216301133761</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01344485794526728</v>
+        <v>0.0134448579452673</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1713301023407829</v>
+        <v>0.1713301023407832</v>
       </c>
       <c r="H13" t="n">
-        <v>1.523280364448053</v>
+        <v>1.523280364448056</v>
       </c>
       <c r="I13" t="n">
-        <v>5.152363441302819</v>
+        <v>5.152363441302828</v>
       </c>
       <c r="J13" t="n">
-        <v>12.11303823549335</v>
+        <v>12.11303823549337</v>
       </c>
       <c r="K13" t="n">
-        <v>19.90544279922914</v>
+        <v>19.90544279922917</v>
       </c>
       <c r="L13" t="n">
-        <v>25.47211357891968</v>
+        <v>25.47211357891972</v>
       </c>
       <c r="M13" t="n">
-        <v>26.85677231511018</v>
+        <v>26.85677231511023</v>
       </c>
       <c r="N13" t="n">
-        <v>26.21817829729455</v>
+        <v>26.2181782972946</v>
       </c>
       <c r="O13" t="n">
-        <v>24.21673119267722</v>
+        <v>24.21673119267726</v>
       </c>
       <c r="P13" t="n">
-        <v>20.72159710492523</v>
+        <v>20.72159710492527</v>
       </c>
       <c r="Q13" t="n">
-        <v>14.3465597514632</v>
+        <v>14.34655975146322</v>
       </c>
       <c r="R13" t="n">
-        <v>7.703624419795565</v>
+        <v>7.703624419795579</v>
       </c>
       <c r="S13" t="n">
-        <v>2.985816419884371</v>
+        <v>2.985816419884376</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7320468009106178</v>
+        <v>0.7320468009106191</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009345278309497261</v>
+        <v>0.009345278309497279</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3819510732859845</v>
+        <v>0.3819510732859852</v>
       </c>
       <c r="H14" t="n">
-        <v>3.91165642929009</v>
+        <v>3.911656429290097</v>
       </c>
       <c r="I14" t="n">
-        <v>14.72516875285793</v>
+        <v>14.72516875285796</v>
       </c>
       <c r="J14" t="n">
-        <v>32.41761990630636</v>
+        <v>32.41761990630642</v>
       </c>
       <c r="K14" t="n">
-        <v>48.5856088385021</v>
+        <v>48.58560883850218</v>
       </c>
       <c r="L14" t="n">
-        <v>60.27474399757806</v>
+        <v>60.27474399757816</v>
       </c>
       <c r="M14" t="n">
-        <v>67.06726639712768</v>
+        <v>67.0672663971278</v>
       </c>
       <c r="N14" t="n">
-        <v>68.1524848841015</v>
+        <v>68.15248488410161</v>
       </c>
       <c r="O14" t="n">
-        <v>64.35445889911398</v>
+        <v>64.35445889911409</v>
       </c>
       <c r="P14" t="n">
-        <v>54.92504177736622</v>
+        <v>54.92504177736632</v>
       </c>
       <c r="Q14" t="n">
-        <v>41.24641896531189</v>
+        <v>41.24641896531197</v>
       </c>
       <c r="R14" t="n">
-        <v>23.99273410730075</v>
+        <v>23.99273410730079</v>
       </c>
       <c r="S14" t="n">
-        <v>8.703710082504381</v>
+        <v>8.703710082504397</v>
       </c>
       <c r="T14" t="n">
-        <v>1.671990823309398</v>
+        <v>1.671990823309401</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03055608586287876</v>
+        <v>0.03055608586287881</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2043618407680625</v>
+        <v>0.2043618407680629</v>
       </c>
       <c r="H15" t="n">
-        <v>1.973705146365236</v>
+        <v>1.97370514636524</v>
       </c>
       <c r="I15" t="n">
-        <v>7.036142324689874</v>
+        <v>7.036142324689886</v>
       </c>
       <c r="J15" t="n">
-        <v>19.30771233326682</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>32.99995566472701</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>44.37251283869709</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>51.78062956653935</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>53.1511087530936</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>48.62288059712758</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>39.02414834806977</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>26.08660970927058</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>12.68836060488024</v>
+        <v>12.68836060488026</v>
       </c>
       <c r="S15" t="n">
-        <v>3.795931559880457</v>
+        <v>3.795931559880464</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8237216301133746</v>
+        <v>0.8237216301133761</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01344485794526728</v>
+        <v>0.0134448579452673</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1713301023407829</v>
+        <v>0.1713301023407832</v>
       </c>
       <c r="H16" t="n">
-        <v>1.523280364448053</v>
+        <v>1.523280364448056</v>
       </c>
       <c r="I16" t="n">
-        <v>5.152363441302819</v>
+        <v>5.152363441302828</v>
       </c>
       <c r="J16" t="n">
-        <v>12.11303823549335</v>
+        <v>12.11303823549337</v>
       </c>
       <c r="K16" t="n">
-        <v>19.90544279922914</v>
+        <v>19.90544279922917</v>
       </c>
       <c r="L16" t="n">
-        <v>25.47211357891968</v>
+        <v>25.47211357891972</v>
       </c>
       <c r="M16" t="n">
-        <v>26.85677231511018</v>
+        <v>26.85677231511023</v>
       </c>
       <c r="N16" t="n">
-        <v>26.21817829729455</v>
+        <v>26.2181782972946</v>
       </c>
       <c r="O16" t="n">
-        <v>24.21673119267722</v>
+        <v>24.21673119267726</v>
       </c>
       <c r="P16" t="n">
-        <v>20.72159710492523</v>
+        <v>20.72159710492527</v>
       </c>
       <c r="Q16" t="n">
-        <v>14.3465597514632</v>
+        <v>14.34655975146322</v>
       </c>
       <c r="R16" t="n">
-        <v>7.703624419795565</v>
+        <v>7.703624419795579</v>
       </c>
       <c r="S16" t="n">
-        <v>2.985816419884371</v>
+        <v>2.985816419884376</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7320468009106178</v>
+        <v>0.7320468009106191</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009345278309497261</v>
+        <v>0.009345278309497279</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3819510732859845</v>
+        <v>0.3819510732859852</v>
       </c>
       <c r="H17" t="n">
-        <v>3.91165642929009</v>
+        <v>3.911656429290097</v>
       </c>
       <c r="I17" t="n">
-        <v>14.72516875285793</v>
+        <v>14.72516875285796</v>
       </c>
       <c r="J17" t="n">
-        <v>32.41761990630636</v>
+        <v>32.41761990630642</v>
       </c>
       <c r="K17" t="n">
-        <v>48.5856088385021</v>
+        <v>48.58560883850218</v>
       </c>
       <c r="L17" t="n">
-        <v>60.27474399757806</v>
+        <v>60.27474399757816</v>
       </c>
       <c r="M17" t="n">
-        <v>67.06726639712768</v>
+        <v>67.0672663971278</v>
       </c>
       <c r="N17" t="n">
-        <v>68.1524848841015</v>
+        <v>68.15248488410161</v>
       </c>
       <c r="O17" t="n">
-        <v>64.35445889911398</v>
+        <v>64.35445889911409</v>
       </c>
       <c r="P17" t="n">
-        <v>54.92504177736622</v>
+        <v>54.92504177736632</v>
       </c>
       <c r="Q17" t="n">
-        <v>41.24641896531189</v>
+        <v>41.24641896531197</v>
       </c>
       <c r="R17" t="n">
-        <v>23.99273410730075</v>
+        <v>23.99273410730079</v>
       </c>
       <c r="S17" t="n">
-        <v>8.703710082504381</v>
+        <v>8.703710082504397</v>
       </c>
       <c r="T17" t="n">
-        <v>1.671990823309398</v>
+        <v>1.671990823309401</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03055608586287876</v>
+        <v>0.03055608586287881</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2043618407680625</v>
+        <v>0.2043618407680629</v>
       </c>
       <c r="H18" t="n">
-        <v>1.973705146365236</v>
+        <v>1.97370514636524</v>
       </c>
       <c r="I18" t="n">
-        <v>7.036142324689874</v>
+        <v>7.036142324689886</v>
       </c>
       <c r="J18" t="n">
-        <v>19.30771233326682</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>32.99995566472701</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>44.37251283869709</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>51.78062956653935</v>
+        <v>51.78062956653944</v>
       </c>
       <c r="N18" t="n">
-        <v>53.1511087530936</v>
+        <v>46.74855269583634</v>
       </c>
       <c r="O18" t="n">
-        <v>48.62288059712758</v>
+        <v>48.62288059712767</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>26.08660970927058</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>12.68836060488024</v>
+        <v>12.68836060488026</v>
       </c>
       <c r="S18" t="n">
-        <v>3.795931559880457</v>
+        <v>3.795931559880464</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8237216301133746</v>
+        <v>0.8237216301133761</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01344485794526728</v>
+        <v>0.0134448579452673</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1713301023407829</v>
+        <v>0.1713301023407832</v>
       </c>
       <c r="H19" t="n">
-        <v>1.523280364448053</v>
+        <v>1.523280364448056</v>
       </c>
       <c r="I19" t="n">
-        <v>5.152363441302819</v>
+        <v>5.152363441302828</v>
       </c>
       <c r="J19" t="n">
-        <v>12.11303823549335</v>
+        <v>12.11303823549337</v>
       </c>
       <c r="K19" t="n">
-        <v>19.90544279922914</v>
+        <v>19.90544279922917</v>
       </c>
       <c r="L19" t="n">
-        <v>25.47211357891968</v>
+        <v>25.47211357891972</v>
       </c>
       <c r="M19" t="n">
-        <v>26.85677231511018</v>
+        <v>26.85677231511023</v>
       </c>
       <c r="N19" t="n">
-        <v>26.21817829729455</v>
+        <v>26.2181782972946</v>
       </c>
       <c r="O19" t="n">
-        <v>24.21673119267722</v>
+        <v>24.21673119267726</v>
       </c>
       <c r="P19" t="n">
-        <v>20.72159710492523</v>
+        <v>20.72159710492527</v>
       </c>
       <c r="Q19" t="n">
-        <v>14.3465597514632</v>
+        <v>14.34655975146322</v>
       </c>
       <c r="R19" t="n">
-        <v>7.703624419795565</v>
+        <v>7.703624419795579</v>
       </c>
       <c r="S19" t="n">
-        <v>2.985816419884371</v>
+        <v>2.985816419884376</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7320468009106178</v>
+        <v>0.7320468009106191</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009345278309497261</v>
+        <v>0.009345278309497279</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>0.3819510732859845</v>
       </c>
       <c r="H20" t="n">
-        <v>3.91165642929009</v>
+        <v>3.911656429290089</v>
       </c>
       <c r="I20" t="n">
         <v>14.72516875285793</v>
@@ -32475,37 +32475,37 @@
         <v>32.41761990630636</v>
       </c>
       <c r="K20" t="n">
-        <v>48.5856088385021</v>
+        <v>48.58560883850209</v>
       </c>
       <c r="L20" t="n">
-        <v>60.27474399757806</v>
+        <v>60.27474399757805</v>
       </c>
       <c r="M20" t="n">
-        <v>67.06726639712768</v>
+        <v>67.06726639712767</v>
       </c>
       <c r="N20" t="n">
-        <v>68.1524848841015</v>
+        <v>68.15248488410148</v>
       </c>
       <c r="O20" t="n">
-        <v>64.35445889911398</v>
+        <v>64.35445889911396</v>
       </c>
       <c r="P20" t="n">
         <v>54.92504177736622</v>
       </c>
       <c r="Q20" t="n">
-        <v>41.24641896531189</v>
+        <v>41.24641896531188</v>
       </c>
       <c r="R20" t="n">
-        <v>23.99273410730075</v>
+        <v>23.99273410730074</v>
       </c>
       <c r="S20" t="n">
-        <v>8.703710082504381</v>
+        <v>8.703710082504379</v>
       </c>
       <c r="T20" t="n">
         <v>1.671990823309398</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03055608586287876</v>
+        <v>0.03055608586287875</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,19 +32548,19 @@
         <v>1.973705146365236</v>
       </c>
       <c r="I21" t="n">
-        <v>7.036142324689874</v>
+        <v>7.036142324689872</v>
       </c>
       <c r="J21" t="n">
-        <v>19.30771233326682</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>44.37251283869709</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>51.78062956653935</v>
+        <v>51.78062956653934</v>
       </c>
       <c r="N21" t="n">
         <v>53.1511087530936</v>
@@ -32572,7 +32572,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>26.08660970927058</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>12.68836060488024</v>
@@ -32581,7 +32581,7 @@
         <v>3.795931559880457</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8237216301133746</v>
+        <v>0.8237216301133745</v>
       </c>
       <c r="U21" t="n">
         <v>0.01344485794526728</v>
@@ -32636,10 +32636,10 @@
         <v>19.90544279922914</v>
       </c>
       <c r="L22" t="n">
-        <v>25.47211357891968</v>
+        <v>25.47211357891967</v>
       </c>
       <c r="M22" t="n">
-        <v>26.85677231511018</v>
+        <v>26.85677231511017</v>
       </c>
       <c r="N22" t="n">
         <v>26.21817829729455</v>
@@ -32651,19 +32651,19 @@
         <v>20.72159710492523</v>
       </c>
       <c r="Q22" t="n">
-        <v>14.3465597514632</v>
+        <v>14.34655975146319</v>
       </c>
       <c r="R22" t="n">
-        <v>7.703624419795565</v>
+        <v>7.703624419795564</v>
       </c>
       <c r="S22" t="n">
-        <v>2.985816419884371</v>
+        <v>2.98581641988437</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7320468009106178</v>
+        <v>0.7320468009106177</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009345278309497261</v>
+        <v>0.00934527830949726</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32788,10 +32788,10 @@
         <v>7.036142324689874</v>
       </c>
       <c r="J24" t="n">
-        <v>19.30771233326682</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>32.99995566472701</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -32806,10 +32806,10 @@
         <v>48.62288059712758</v>
       </c>
       <c r="P24" t="n">
-        <v>39.02414834806977</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>26.08660970927058</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>12.68836060488024</v>
@@ -33025,28 +33025,28 @@
         <v>7.036142324689874</v>
       </c>
       <c r="J27" t="n">
-        <v>19.30771233326682</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>32.99995566472701</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>44.37251283869709</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>51.78062956653935</v>
+        <v>48.64955452365734</v>
       </c>
       <c r="N27" t="n">
-        <v>53.1511087530936</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>48.62288059712758</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>39.02414834806977</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>26.08660970927058</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>12.68836060488024</v>
@@ -33262,28 +33262,28 @@
         <v>7.036142324689874</v>
       </c>
       <c r="J30" t="n">
-        <v>19.30771233326682</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>32.99995566472701</v>
+        <v>15.1325210756097</v>
       </c>
       <c r="L30" t="n">
         <v>44.37251283869709</v>
       </c>
       <c r="M30" t="n">
-        <v>51.78062956653935</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>53.1511087530936</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>48.62288059712758</v>
       </c>
       <c r="P30" t="n">
         <v>39.02414834806977</v>
       </c>
       <c r="Q30" t="n">
-        <v>26.08660970927058</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>12.68836060488024</v>
@@ -33499,16 +33499,16 @@
         <v>7.036142324689874</v>
       </c>
       <c r="J33" t="n">
-        <v>19.30771233326682</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>32.99995566472701</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>44.37251283869709</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>51.78062956653935</v>
       </c>
       <c r="N33" t="n">
         <v>53.1511087530936</v>
@@ -33517,7 +33517,7 @@
         <v>48.62288059712758</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>39.02414834806977</v>
       </c>
       <c r="Q33" t="n">
         <v>26.08660970927058</v>
@@ -33736,19 +33736,19 @@
         <v>7.036142324689874</v>
       </c>
       <c r="J36" t="n">
-        <v>19.30771233326682</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>44.37251283869709</v>
       </c>
       <c r="M36" t="n">
         <v>51.78062956653935</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>53.1511087530936</v>
       </c>
       <c r="O36" t="n">
         <v>48.62288059712758</v>
@@ -33973,10 +33973,10 @@
         <v>7.036142324689874</v>
       </c>
       <c r="J39" t="n">
-        <v>19.30771233326682</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>32.99995566472701</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>44.37251283869709</v>
@@ -34210,13 +34210,13 @@
         <v>7.036142324689874</v>
       </c>
       <c r="J42" t="n">
-        <v>19.30771233326682</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>32.99995566472701</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>44.37251283869709</v>
       </c>
       <c r="M42" t="n">
         <v>51.78062956653935</v>
@@ -34225,13 +34225,13 @@
         <v>53.1511087530936</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>48.62288059712758</v>
       </c>
       <c r="P42" t="n">
         <v>39.02414834806977</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>26.08660970927058</v>
       </c>
       <c r="R42" t="n">
         <v>12.68836060488024</v>
@@ -34386,7 +34386,7 @@
         <v>64.35445889911398</v>
       </c>
       <c r="P44" t="n">
-        <v>54.92504177736612</v>
+        <v>54.92504177736622</v>
       </c>
       <c r="Q44" t="n">
         <v>41.24641896531189</v>
@@ -34447,28 +34447,28 @@
         <v>7.036142324689874</v>
       </c>
       <c r="J45" t="n">
-        <v>19.30771233326682</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>32.99995566472701</v>
       </c>
       <c r="L45" t="n">
-        <v>44.37251283869709</v>
+        <v>13.74859703111008</v>
       </c>
       <c r="M45" t="n">
         <v>51.78062956653935</v>
       </c>
       <c r="N45" t="n">
-        <v>53.1511087530936</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>48.62288059712758</v>
       </c>
       <c r="P45" t="n">
-        <v>39.02414834806977</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>26.08660970927058</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>12.68836060488024</v>
@@ -34783,13 +34783,13 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M3" t="n">
-        <v>489.93268031336</v>
+        <v>200.061099507456</v>
       </c>
       <c r="N3" t="n">
-        <v>436.7100974846449</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O3" t="n">
         <v>396.1615664486372</v>
@@ -34798,7 +34798,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35029,13 +35029,13 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O6" t="n">
-        <v>396.1615664486372</v>
+        <v>252.0720962387968</v>
       </c>
       <c r="P6" t="n">
-        <v>15.27581240187084</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>231.8086389496855</v>
@@ -35263,16 +35263,16 @@
         <v>489.93268031336</v>
       </c>
       <c r="N9" t="n">
-        <v>516.4299455789112</v>
+        <v>128.0558564371606</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P9" t="n">
         <v>305.147393207775</v>
       </c>
       <c r="Q9" t="n">
-        <v>106.2899856427332</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>105.1434222020696</v>
+        <v>105.1434222020697</v>
       </c>
       <c r="K11" t="n">
-        <v>291.1516412069695</v>
+        <v>291.1516412069696</v>
       </c>
       <c r="L11" t="n">
-        <v>411.674110750049</v>
+        <v>411.6741107500491</v>
       </c>
       <c r="M11" t="n">
-        <v>464.2785454406509</v>
+        <v>464.278545440651</v>
       </c>
       <c r="N11" t="n">
-        <v>450.3053724474507</v>
+        <v>450.3053724474508</v>
       </c>
       <c r="O11" t="n">
-        <v>372.4398977605624</v>
+        <v>372.4398977605625</v>
       </c>
       <c r="P11" t="n">
-        <v>285.3865533491372</v>
+        <v>285.3865533491373</v>
       </c>
       <c r="Q11" t="n">
-        <v>136.6325338001977</v>
+        <v>136.6325338001978</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>80.17048660913161</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K12" t="n">
-        <v>264.8085946144125</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L12" t="n">
-        <v>413.8895281620462</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M12" t="n">
-        <v>541.7133098798994</v>
+        <v>541.7133098798995</v>
       </c>
       <c r="N12" t="n">
-        <v>242.0222767690058</v>
+        <v>569.5810543320049</v>
       </c>
       <c r="O12" t="n">
-        <v>444.7844470457648</v>
+        <v>444.7844470457649</v>
       </c>
       <c r="P12" t="n">
-        <v>344.1715415558448</v>
+        <v>139.379554538808</v>
       </c>
       <c r="Q12" t="n">
-        <v>185.4518923209819</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>58.33729186070526</v>
+        <v>58.33729186070529</v>
       </c>
       <c r="K13" t="n">
         <v>159.5299866088984</v>
       </c>
       <c r="L13" t="n">
-        <v>232.7763459296152</v>
+        <v>232.7763459296153</v>
       </c>
       <c r="M13" t="n">
-        <v>251.7230518651413</v>
+        <v>251.7230518651414</v>
       </c>
       <c r="N13" t="n">
-        <v>251.5176251422738</v>
+        <v>251.5176251422739</v>
       </c>
       <c r="O13" t="n">
         <v>229.3558798013831</v>
       </c>
       <c r="P13" t="n">
-        <v>190.0070459484271</v>
+        <v>190.0070459484272</v>
       </c>
       <c r="Q13" t="n">
-        <v>81.87551164379624</v>
+        <v>81.87551164379629</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>105.1434222020696</v>
+        <v>105.1434222020697</v>
       </c>
       <c r="K14" t="n">
-        <v>291.1516412069695</v>
+        <v>291.1516412069696</v>
       </c>
       <c r="L14" t="n">
-        <v>411.674110750049</v>
+        <v>411.6741107500491</v>
       </c>
       <c r="M14" t="n">
-        <v>464.2785454406509</v>
+        <v>464.278545440651</v>
       </c>
       <c r="N14" t="n">
-        <v>450.3053724474507</v>
+        <v>450.3053724474508</v>
       </c>
       <c r="O14" t="n">
-        <v>372.4398977605624</v>
+        <v>372.4398977605625</v>
       </c>
       <c r="P14" t="n">
-        <v>285.3865533491372</v>
+        <v>285.3865533491373</v>
       </c>
       <c r="Q14" t="n">
-        <v>136.6325338001977</v>
+        <v>136.6325338001978</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>80.17048660913161</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K15" t="n">
-        <v>264.8085946144125</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L15" t="n">
-        <v>86.33075059904672</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M15" t="n">
-        <v>541.7133098798994</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N15" t="n">
-        <v>569.5810543320048</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O15" t="n">
-        <v>444.7844470457648</v>
+        <v>383.9483466964293</v>
       </c>
       <c r="P15" t="n">
-        <v>344.1715415558448</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q15" t="n">
-        <v>185.4518923209819</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>58.33729186070526</v>
+        <v>58.33729186070529</v>
       </c>
       <c r="K16" t="n">
         <v>159.5299866088984</v>
       </c>
       <c r="L16" t="n">
-        <v>232.7763459296152</v>
+        <v>232.7763459296153</v>
       </c>
       <c r="M16" t="n">
-        <v>251.7230518651413</v>
+        <v>251.7230518651414</v>
       </c>
       <c r="N16" t="n">
-        <v>251.5176251422738</v>
+        <v>251.5176251422739</v>
       </c>
       <c r="O16" t="n">
         <v>229.3558798013831</v>
       </c>
       <c r="P16" t="n">
-        <v>190.0070459484271</v>
+        <v>190.0070459484272</v>
       </c>
       <c r="Q16" t="n">
-        <v>81.87551164379624</v>
+        <v>81.8755116437963</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>105.1434222020696</v>
+        <v>105.1434222020697</v>
       </c>
       <c r="K17" t="n">
-        <v>291.1516412069695</v>
+        <v>291.1516412069696</v>
       </c>
       <c r="L17" t="n">
-        <v>411.674110750049</v>
+        <v>411.6741107500491</v>
       </c>
       <c r="M17" t="n">
-        <v>464.2785454406509</v>
+        <v>464.278545440651</v>
       </c>
       <c r="N17" t="n">
-        <v>450.3053724474507</v>
+        <v>450.3053724474508</v>
       </c>
       <c r="O17" t="n">
-        <v>372.4398977605624</v>
+        <v>372.4398977605625</v>
       </c>
       <c r="P17" t="n">
-        <v>285.3865533491372</v>
+        <v>285.3865533491373</v>
       </c>
       <c r="Q17" t="n">
-        <v>136.6325338001977</v>
+        <v>136.6325338001978</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>80.17048660913161</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K18" t="n">
-        <v>264.8085946144125</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L18" t="n">
-        <v>125.3548989471169</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M18" t="n">
-        <v>541.7133098798994</v>
+        <v>541.7133098798995</v>
       </c>
       <c r="N18" t="n">
-        <v>569.5810543320048</v>
+        <v>563.1784982747475</v>
       </c>
       <c r="O18" t="n">
-        <v>444.7844470457648</v>
+        <v>444.7844470457649</v>
       </c>
       <c r="P18" t="n">
         <v>305.147393207775</v>
       </c>
       <c r="Q18" t="n">
-        <v>185.4518923209819</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>58.33729186070526</v>
+        <v>58.33729186070528</v>
       </c>
       <c r="K19" t="n">
-        <v>159.5299866088988</v>
+        <v>159.5299866088984</v>
       </c>
       <c r="L19" t="n">
-        <v>232.7763459296152</v>
+        <v>232.7763459296153</v>
       </c>
       <c r="M19" t="n">
-        <v>251.7230518651413</v>
+        <v>251.7230518651414</v>
       </c>
       <c r="N19" t="n">
-        <v>251.5176251422738</v>
+        <v>251.5176251422739</v>
       </c>
       <c r="O19" t="n">
         <v>229.3558798013831</v>
       </c>
       <c r="P19" t="n">
-        <v>190.0070459484271</v>
+        <v>190.0070459484272</v>
       </c>
       <c r="Q19" t="n">
-        <v>81.87551164379624</v>
+        <v>81.87551164379627</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36205,7 +36205,7 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L21" t="n">
-        <v>413.8895281620462</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M21" t="n">
         <v>541.7133098798994</v>
@@ -36217,10 +36217,10 @@
         <v>444.7844470457648</v>
       </c>
       <c r="P21" t="n">
-        <v>129.7832062667038</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q21" t="n">
-        <v>185.4518923209819</v>
+        <v>54.46021821860793</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>58.33729186070528</v>
+        <v>58.33729186070526</v>
       </c>
       <c r="K22" t="n">
         <v>159.5299866088984</v>
@@ -36287,7 +36287,7 @@
         <v>232.7763459296152</v>
       </c>
       <c r="M22" t="n">
-        <v>251.7230518651413</v>
+        <v>251.7230518651417</v>
       </c>
       <c r="N22" t="n">
         <v>251.5176251422738</v>
@@ -36299,7 +36299,7 @@
         <v>190.0070459484271</v>
       </c>
       <c r="Q22" t="n">
-        <v>81.87551164379627</v>
+        <v>81.87551164379624</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>80.17048660913161</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K24" t="n">
-        <v>264.8085946144125</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L24" t="n">
         <v>369.5170153233491</v>
@@ -36448,16 +36448,16 @@
         <v>541.7133098798994</v>
       </c>
       <c r="N24" t="n">
-        <v>471.8466819286847</v>
+        <v>403.8132156630368</v>
       </c>
       <c r="O24" t="n">
         <v>444.7844470457648</v>
       </c>
       <c r="P24" t="n">
-        <v>344.1715415558448</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,16 +36515,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>58.33729186070528</v>
+        <v>58.33729186070526</v>
       </c>
       <c r="K25" t="n">
-        <v>159.5299866088985</v>
+        <v>159.5299866088984</v>
       </c>
       <c r="L25" t="n">
         <v>232.7763459296152</v>
       </c>
       <c r="M25" t="n">
-        <v>251.7230518651413</v>
+        <v>251.7230518651417</v>
       </c>
       <c r="N25" t="n">
         <v>251.5176251422738</v>
@@ -36536,7 +36536,7 @@
         <v>190.0070459484271</v>
       </c>
       <c r="Q25" t="n">
-        <v>81.87551164379627</v>
+        <v>81.87551164379624</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>80.17048660913161</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.8085946144125</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L27" t="n">
-        <v>86.33075059904672</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M27" t="n">
-        <v>541.7133098798994</v>
+        <v>538.5822348370174</v>
       </c>
       <c r="N27" t="n">
-        <v>569.5810543320048</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O27" t="n">
-        <v>444.7844470457648</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P27" t="n">
-        <v>344.1715415558448</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q27" t="n">
-        <v>185.4518923209819</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>58.33729186070525</v>
+        <v>58.33729186070526</v>
       </c>
       <c r="K28" t="n">
         <v>159.5299866088984</v>
@@ -36767,7 +36767,7 @@
         <v>251.5176251422738</v>
       </c>
       <c r="O28" t="n">
-        <v>229.355879801383</v>
+        <v>229.3558798013831</v>
       </c>
       <c r="P28" t="n">
         <v>190.0070459484271</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>80.17048660913161</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K30" t="n">
-        <v>264.8085946144125</v>
+        <v>246.9411600252952</v>
       </c>
       <c r="L30" t="n">
         <v>413.8895281620462</v>
       </c>
       <c r="M30" t="n">
-        <v>541.7133098798994</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N30" t="n">
-        <v>290.6451573661329</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O30" t="n">
-        <v>396.1615664486372</v>
+        <v>444.7844470457648</v>
       </c>
       <c r="P30" t="n">
         <v>344.1715415558448</v>
       </c>
       <c r="Q30" t="n">
-        <v>185.4518923209819</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>58.33729186070532</v>
+        <v>58.33729186070526</v>
       </c>
       <c r="K31" t="n">
         <v>159.5299866088984</v>
       </c>
       <c r="L31" t="n">
-        <v>232.7763459296153</v>
+        <v>232.7763459296152</v>
       </c>
       <c r="M31" t="n">
-        <v>251.7230518651414</v>
+        <v>251.7230518651413</v>
       </c>
       <c r="N31" t="n">
-        <v>251.5176251422739</v>
+        <v>251.5176251422738</v>
       </c>
       <c r="O31" t="n">
         <v>229.3558798013831</v>
       </c>
       <c r="P31" t="n">
-        <v>190.0070459484272</v>
+        <v>190.0070459484271</v>
       </c>
       <c r="Q31" t="n">
-        <v>81.8755116437963</v>
+        <v>81.87551164379624</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37147,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>80.17048660913161</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.8085946144125</v>
+        <v>17.42030366054463</v>
       </c>
       <c r="L33" t="n">
         <v>413.8895281620462</v>
       </c>
       <c r="M33" t="n">
-        <v>253.1786806649695</v>
+        <v>541.7133098798994</v>
       </c>
       <c r="N33" t="n">
         <v>569.5810543320048</v>
@@ -37165,7 +37165,7 @@
         <v>444.7844470457648</v>
       </c>
       <c r="P33" t="n">
-        <v>305.147393207775</v>
+        <v>344.1715415558448</v>
       </c>
       <c r="Q33" t="n">
         <v>185.4518923209819</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.91192458493227</v>
+        <v>60.91192458493171</v>
       </c>
       <c r="K34" t="n">
-        <v>162.1046193331254</v>
+        <v>162.1046193331248</v>
       </c>
       <c r="L34" t="n">
-        <v>235.3509786538422</v>
+        <v>235.3509786538417</v>
       </c>
       <c r="M34" t="n">
-        <v>191.6700916378829</v>
+        <v>254.2976845893677</v>
       </c>
       <c r="N34" t="n">
-        <v>254.0922578665008</v>
+        <v>254.0922578665003</v>
       </c>
       <c r="O34" t="n">
-        <v>231.9305125256101</v>
+        <v>169.3029195741379</v>
       </c>
       <c r="P34" t="n">
-        <v>192.5816786726541</v>
+        <v>192.5816786726536</v>
       </c>
       <c r="Q34" t="n">
-        <v>84.45014436802325</v>
+        <v>84.45014436802271</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37384,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>80.17048660913161</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>231.8086389496855</v>
+        <v>17.42030366054463</v>
       </c>
       <c r="L36" t="n">
-        <v>172.4818150168674</v>
+        <v>413.8895281620462</v>
       </c>
       <c r="M36" t="n">
         <v>541.7133098798994</v>
       </c>
       <c r="N36" t="n">
-        <v>516.4299455789112</v>
+        <v>569.5810543320048</v>
       </c>
       <c r="O36" t="n">
         <v>444.7844470457648</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>60.91192458493225</v>
+        <v>60.91192458493171</v>
       </c>
       <c r="K37" t="n">
-        <v>162.1046193331254</v>
+        <v>162.1046193331248</v>
       </c>
       <c r="L37" t="n">
-        <v>235.3509786538422</v>
+        <v>235.3509786538417</v>
       </c>
       <c r="M37" t="n">
-        <v>254.2976845893683</v>
+        <v>254.2976845893677</v>
       </c>
       <c r="N37" t="n">
-        <v>191.4646649150157</v>
+        <v>254.0922578665003</v>
       </c>
       <c r="O37" t="n">
-        <v>231.9305125256101</v>
+        <v>169.3029195741379</v>
       </c>
       <c r="P37" t="n">
-        <v>192.5816786726541</v>
+        <v>192.5816786726536</v>
       </c>
       <c r="Q37" t="n">
-        <v>84.45014436802325</v>
+        <v>84.45014436802271</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>411.674110750049</v>
       </c>
       <c r="M38" t="n">
-        <v>464.2785454406509</v>
+        <v>464.2785454406511</v>
       </c>
       <c r="N38" t="n">
         <v>450.3053724474507</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>80.17048660913161</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>17.42030366054463</v>
       </c>
       <c r="L39" t="n">
         <v>413.8895281620462</v>
@@ -37639,7 +37639,7 @@
         <v>444.7844470457648</v>
       </c>
       <c r="P39" t="n">
-        <v>281.4213586072578</v>
+        <v>344.1715415558448</v>
       </c>
       <c r="Q39" t="n">
         <v>185.4518923209819</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>60.91192458493225</v>
+        <v>60.91192458493171</v>
       </c>
       <c r="K40" t="n">
-        <v>162.1046193331254</v>
+        <v>162.1046193331248</v>
       </c>
       <c r="L40" t="n">
-        <v>235.3509786538422</v>
+        <v>235.3509786538417</v>
       </c>
       <c r="M40" t="n">
-        <v>191.6700916378833</v>
+        <v>254.2976845893677</v>
       </c>
       <c r="N40" t="n">
-        <v>254.0922578665008</v>
+        <v>254.0922578665003</v>
       </c>
       <c r="O40" t="n">
-        <v>231.9305125256101</v>
+        <v>231.9305125256095</v>
       </c>
       <c r="P40" t="n">
-        <v>192.5816786726541</v>
+        <v>129.9540857211817</v>
       </c>
       <c r="Q40" t="n">
-        <v>84.45014436802325</v>
+        <v>84.45014436802271</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>105.1434222020696</v>
       </c>
       <c r="K41" t="n">
-        <v>291.1516412069698</v>
+        <v>291.1516412069695</v>
       </c>
       <c r="L41" t="n">
         <v>411.674110750049</v>
@@ -37800,7 +37800,7 @@
         <v>285.3865533491372</v>
       </c>
       <c r="Q41" t="n">
-        <v>136.6325338001977</v>
+        <v>136.6325338001976</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>80.17048660913161</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.8085946144125</v>
+        <v>17.42030366054463</v>
       </c>
       <c r="L42" t="n">
-        <v>161.0402409054449</v>
+        <v>413.8895281620462</v>
       </c>
       <c r="M42" t="n">
         <v>541.7133098798994</v>
@@ -37873,13 +37873,13 @@
         <v>569.5810543320048</v>
       </c>
       <c r="O42" t="n">
-        <v>396.1615664486372</v>
+        <v>444.7844470457648</v>
       </c>
       <c r="P42" t="n">
         <v>344.1715415558448</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.3652826117113</v>
+        <v>185.4518923209819</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.42369950794445</v>
+        <v>56.42369950794387</v>
       </c>
       <c r="L43" t="n">
-        <v>129.6700588286614</v>
+        <v>129.6700588286608</v>
       </c>
       <c r="M43" t="n">
-        <v>148.6167647641874</v>
+        <v>148.6167647641868</v>
       </c>
       <c r="N43" t="n">
-        <v>148.4113380413199</v>
+        <v>148.4113380413193</v>
       </c>
       <c r="O43" t="n">
-        <v>126.2495927004292</v>
+        <v>126.2495927004286</v>
       </c>
       <c r="P43" t="n">
-        <v>86.90075884747324</v>
+        <v>86.90075884747267</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38034,7 +38034,7 @@
         <v>372.4398977605624</v>
       </c>
       <c r="P44" t="n">
-        <v>285.386553349137</v>
+        <v>285.3865533491372</v>
       </c>
       <c r="Q44" t="n">
         <v>136.6325338001977</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>80.17048660913161</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K45" t="n">
         <v>264.8085946144125</v>
       </c>
       <c r="L45" t="n">
-        <v>413.8895281620462</v>
+        <v>383.2656123544592</v>
       </c>
       <c r="M45" t="n">
         <v>541.7133098798994</v>
       </c>
       <c r="N45" t="n">
-        <v>569.5810543320048</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O45" t="n">
-        <v>117.2256694827652</v>
+        <v>444.7844470457648</v>
       </c>
       <c r="P45" t="n">
-        <v>344.1715415558448</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q45" t="n">
-        <v>185.4518923209819</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,22 +38177,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.42369950794438</v>
+        <v>56.42369950794387</v>
       </c>
       <c r="L46" t="n">
-        <v>129.6700588286613</v>
+        <v>129.6700588286608</v>
       </c>
       <c r="M46" t="n">
-        <v>148.6167647641873</v>
+        <v>148.6167647641868</v>
       </c>
       <c r="N46" t="n">
-        <v>148.4113380413199</v>
+        <v>148.4113380413193</v>
       </c>
       <c r="O46" t="n">
-        <v>126.2495927004291</v>
+        <v>126.2495927004286</v>
       </c>
       <c r="P46" t="n">
-        <v>86.90075884747318</v>
+        <v>86.90075884747267</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
